--- a/test_new_pred_to_find_similarity.xlsx
+++ b/test_new_pred_to_find_similarity.xlsx
@@ -14,1428 +14,1995 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663">
   <si>
     <t>q1</t>
   </si>
   <si>
-    <t>最近有什么信用卡优惠活动</t>
-  </si>
-  <si>
-    <t>转账手续费</t>
-  </si>
-  <si>
-    <t>转账汇款</t>
-  </si>
-  <si>
-    <t>住房公积金缴存情况</t>
-  </si>
-  <si>
-    <t>中午可以办理业务吗</t>
+    <t xml:space="preserve">近期有哪些信用卡优惠活动? </t>
+  </si>
+  <si>
+    <t>银行的信用卡最近有什么优惠活动?</t>
+  </si>
+  <si>
+    <t>转账时如何收费？</t>
+  </si>
+  <si>
+    <t>汇款和转账有何区别?</t>
+  </si>
+  <si>
+    <t>住房公积金查询</t>
+  </si>
+  <si>
+    <t>银行办理个人业务,中午休息么</t>
+  </si>
+  <si>
+    <t>中国银行中午能办理业务吗?</t>
   </si>
   <si>
     <t>中国人民解放军总医院</t>
   </si>
   <si>
+    <t>中国银行向建设银行转账手续费怎么算,同一城市</t>
+  </si>
+  <si>
+    <t>建行同行异地转账手续费是多少?</t>
+  </si>
+  <si>
+    <t>建行异地取钱要手续费吗?</t>
+  </si>
+  <si>
+    <t>异地存取款</t>
+  </si>
+  <si>
+    <t>2017年建行异地跨行转账手续费是多少</t>
+  </si>
+  <si>
+    <t>建设银行异地取款怎么收费</t>
+  </si>
+  <si>
+    <t>建设银行的卡在异地ATM机存钱要扣手续费吗</t>
+  </si>
+  <si>
+    <t>中国建设银行微信公众号</t>
+  </si>
+  <si>
+    <t>跨行存取款手续费</t>
+  </si>
+  <si>
+    <t>建设银行转型发展五大方向是哪几个</t>
+  </si>
+  <si>
+    <t>中国建设银行英文缩写</t>
+  </si>
+  <si>
+    <t>中国建设银行</t>
+  </si>
+  <si>
+    <t>建设银行什么时候成立的</t>
+  </si>
+  <si>
+    <t>外币资本金可以质押贷款吗</t>
+  </si>
+  <si>
+    <t>申请建行快贷是不是必须去银行开通手机银行?</t>
+  </si>
+  <si>
+    <t>信用卡账单分期手续费是多少</t>
+  </si>
+  <si>
+    <t>如何办理银行卡,有什么步骤,求具体!!!</t>
+  </si>
+  <si>
+    <t>速通卡办理</t>
+  </si>
+  <si>
+    <t>怎么在网上支付交通违章罚款</t>
+  </si>
+  <si>
+    <t>建行手机银行总说我绑定其它设备只能转5000</t>
+  </si>
+  <si>
+    <t>手机建行为什么只能转5000元,要怎么修改?</t>
+  </si>
+  <si>
+    <t>如何申请办理支票?</t>
+  </si>
+  <si>
+    <t>手机建设银行怎么开通龙支付功能</t>
+  </si>
+  <si>
+    <t>信用卡还款日怎么算</t>
+  </si>
+  <si>
+    <t>怎样查询住房公积金缴存历史明细</t>
+  </si>
+  <si>
+    <t xml:space="preserve">货车用户可以在哪里办理粤通卡? </t>
+  </si>
+  <si>
+    <t>办理高速公路卡</t>
+  </si>
+  <si>
+    <t>请问办理高速公路ETC卡怎么办理。我是单位的车,在哪...</t>
+  </si>
+  <si>
+    <t>ETC怎么申请？如何办理ETC</t>
+  </si>
+  <si>
+    <t>ATM机取钱有没有短信通知</t>
+  </si>
+  <si>
+    <t>请问网上签订的贷款合同具有法律效力吗?</t>
+  </si>
+  <si>
+    <t>信用卡网上支付后没有短信提示</t>
+  </si>
+  <si>
+    <t>在手机银行可以转账多少</t>
+  </si>
+  <si>
+    <t>etc充值怎么充值</t>
+  </si>
+  <si>
+    <t>如何查看客户收支明细</t>
+  </si>
+  <si>
+    <t>境外用信用卡消费,用什么币种划算?</t>
+  </si>
+  <si>
+    <t>你好建行etc全国高速都可用吗?</t>
+  </si>
+  <si>
+    <t>信用卡在国外取款要不要手续费</t>
+  </si>
+  <si>
+    <t>粤通卡网上充值方法一览</t>
+  </si>
+  <si>
+    <t>粤通卡在哪里充值</t>
+  </si>
+  <si>
+    <t>要怎么才能办粤通卡</t>
+  </si>
+  <si>
+    <t>ETC粤通卡充值易怎么用?正确的打开方式是这样的!</t>
+  </si>
+  <si>
+    <t>建行粤通卡可以从ATM机转款么</t>
+  </si>
+  <si>
+    <t>粤通卡(建行借记卡)怎么充值_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">如何用支付宝充值建行粤通卡 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">粤通卡是什么?有什么用? </t>
+  </si>
+  <si>
+    <t>粤通卡过高速收费有短信通知吗</t>
+  </si>
+  <si>
+    <t>粤通卡不显示高速通行费信息</t>
+  </si>
+  <si>
+    <t>粤通卡如何充值、开发票、查询消费明细</t>
+  </si>
+  <si>
+    <t>粤通卡(建行借记卡)怎么充值</t>
+  </si>
+  <si>
+    <t>粤通卡还有别的用处吗</t>
+  </si>
+  <si>
+    <t>信用卡,人民币专项分期账户约定还款失败,原因为账户余...</t>
+  </si>
+  <si>
+    <t>信用卡刷卡的话要不要收我的手续费?</t>
+  </si>
+  <si>
+    <t>用信用卡刷卡消费需要交手续费吗?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">手机银行转帐一次最多可转多少? </t>
+  </si>
+  <si>
+    <t>使用手机银行跨行转账有限额吗,一笔最多可以转多少</t>
+  </si>
+  <si>
+    <t>个人使用手机银行跨行转账有限额吗,一笔最多可以转多少?</t>
+  </si>
+  <si>
+    <t>用手机电子银行转账一天最多能转多少?</t>
+  </si>
+  <si>
+    <t>临时身份证在银行能开户吗</t>
+  </si>
+  <si>
+    <t>银行汇票和银行支票有什么区别?</t>
+  </si>
+  <si>
+    <t>在国外银行卡手续费</t>
+  </si>
+  <si>
+    <t>中国的银行卡在国外的取款机上能用吗</t>
+  </si>
+  <si>
+    <t>银行卡丢失以后怎么办</t>
+  </si>
+  <si>
+    <t>我的银行卡被吞了怎么办</t>
+  </si>
+  <si>
+    <t>银行卡被吞了怎么办 哪些情况下银行卡卡会被吞?</t>
+  </si>
+  <si>
+    <t>微信绑定不了银行卡,提示预留手机号不对?</t>
+  </si>
+  <si>
+    <t>银行对账单是啥</t>
+  </si>
+  <si>
+    <t>为什么以前用了银行卡里的钱都会有短信通知,现在没有了</t>
+  </si>
+  <si>
+    <t>忘记住房公积金卡密码了怎么办</t>
+  </si>
+  <si>
+    <t>住房公积金密码忘了怎么办</t>
+  </si>
+  <si>
+    <t>一个人可以申请几张建行信用卡?</t>
+  </si>
+  <si>
+    <t>求问在信用卡还款时,最低还款额是什么意思?</t>
+  </si>
+  <si>
+    <t>信用卡只还最低还款额会不会影响信用呢?</t>
+  </si>
+  <si>
+    <t>信用卡个人资料修改</t>
+  </si>
+  <si>
+    <t>账单日前消费好还是在账单日后消费好呢?</t>
+  </si>
+  <si>
+    <t>信用卡帐单分期和现金分期一样吗</t>
+  </si>
+  <si>
+    <t>信用卡每日设置限额怎么改</t>
+  </si>
+  <si>
+    <t>信用卡怎么还款</t>
+  </si>
+  <si>
+    <t>信用卡还款</t>
+  </si>
+  <si>
+    <t>银行信用卡应该去哪里激活?</t>
+  </si>
+  <si>
+    <t>信用卡可以在自动取款机取钱吗</t>
+  </si>
+  <si>
+    <t>信用卡可以直接在atm机取现吗?</t>
+  </si>
+  <si>
+    <t>信用卡的优势体现在哪儿</t>
+  </si>
+  <si>
+    <t>信用卡分类都有哪些</t>
+  </si>
+  <si>
+    <t>信用卡按信誉分为几个等级</t>
+  </si>
+  <si>
+    <t>工行有几个等级的信用卡呢?</t>
+  </si>
+  <si>
+    <t>信用卡多久时间要还款</t>
+  </si>
+  <si>
+    <t>信用卡消费有没有手续费要收取啊?</t>
+  </si>
+  <si>
+    <t>银行信用卡透支后怎么还款</t>
+  </si>
+  <si>
+    <t>银行信用卡透支后如何还款?</t>
+  </si>
+  <si>
+    <t>信用卡透支后可以半年或一年才还款吗?</t>
+  </si>
+  <si>
+    <t>如何更改信用卡手机号</t>
+  </si>
+  <si>
+    <t>信用卡怎么更改手机号码 信用卡怎么变更手机号码</t>
+  </si>
+  <si>
+    <t>我收到银行寄过来的工行信用卡以后,如何激活呢?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">信用卡什么时间起源于哪个国家及主要功能是什么? </t>
+  </si>
+  <si>
+    <t>信用卡需要多久还款?还款日期是什么时候</t>
+  </si>
+  <si>
+    <t>信用卡办理的条件及流程</t>
+  </si>
+  <si>
+    <t>用信用卡取现的话利息怎么算,每个月还多少钱?-信用卡提现</t>
+  </si>
+  <si>
+    <t xml:space="preserve">信用卡年费是多少_你的信用卡年费是多少 </t>
+  </si>
+  <si>
+    <t>大学生信用卡年费是多少?</t>
+  </si>
+  <si>
+    <t>交通银行信用卡年费-为您详细介绍交行信用卡年费</t>
+  </si>
+  <si>
+    <t>信用卡的密码忘了怎么办?</t>
+  </si>
+  <si>
+    <t>建行信用卡购物时密码输入错误三次,是否锁卡?</t>
+  </si>
+  <si>
+    <t>办信用卡时留的手机号码能改吗</t>
+  </si>
+  <si>
+    <t>信用卡预留电话如何更改_怎么修改预留电话</t>
+  </si>
+  <si>
+    <t>如何修改信用卡联系地址?</t>
+  </si>
+  <si>
+    <t>信用卡可以提现金吗</t>
+  </si>
+  <si>
+    <t>个人信用卡可以提取现金吗?</t>
+  </si>
+  <si>
+    <t>中国银行信用卡境外消费有手续费吗</t>
+  </si>
+  <si>
+    <t>信用卡境外ATM取现如何收费?</t>
+  </si>
+  <si>
+    <t>刷卡手续费</t>
+  </si>
+  <si>
+    <t>2018各大银行信用卡取现手续费和利息一览</t>
+  </si>
+  <si>
+    <t>信用卡激活</t>
+  </si>
+  <si>
+    <t>信用卡快速开卡_信用卡激活</t>
+  </si>
+  <si>
+    <t>招商银行信用卡积分会清零吗</t>
+  </si>
+  <si>
+    <t>必备信用卡还款小常识,你get了吗?</t>
+  </si>
+  <si>
+    <t>信用卡还款小贴士五:教你100天免息期</t>
+  </si>
+  <si>
+    <t>信用卡的还款日期怎么计算</t>
+  </si>
+  <si>
+    <t>各大银行的信用卡还款日都是如何计算的?</t>
+  </si>
+  <si>
+    <t>一张图讲明白信用卡账单日、还款日怎么用最划算!</t>
+  </si>
+  <si>
+    <t>信用卡还款渠道有哪些</t>
+  </si>
+  <si>
+    <t>境外信用卡刷卡手续费是多少 境外刷信用卡要手续费吗</t>
+  </si>
+  <si>
+    <t>银行信用卡挂失</t>
+  </si>
+  <si>
+    <t>如何更改信用卡密码</t>
+  </si>
+  <si>
+    <t>我有信用卡,但是额度太低了,怎么提额?能马上提高吗?</t>
+  </si>
+  <si>
+    <t>我有信用卡,但是额度太低了,怎么提额?</t>
+  </si>
+  <si>
+    <t>初次办理信用卡额度是多少?</t>
+  </si>
+  <si>
+    <t>信用卡掉了怎么办</t>
+  </si>
+  <si>
+    <t>信用卡丢了,想补卡怎么办?</t>
+  </si>
+  <si>
+    <t>对方说我的信用卡账单地址不对,改怎么解决</t>
+  </si>
+  <si>
+    <t>关于信用卡是怎么收取手续费的</t>
+  </si>
+  <si>
+    <t>信用卡到期后,怎样更换新卡</t>
+  </si>
+  <si>
+    <t>信用卡到期以后想继续使用怎么办?不想继续用了又要怎么办...</t>
+  </si>
+  <si>
+    <t>信用卡到期怎么办?</t>
+  </si>
+  <si>
+    <t>信用卡到期时换卡还和以前的信用卡账号密码一样吗?</t>
+  </si>
+  <si>
+    <t>中国银行信用卡到期了,换新卡电话激活需要我的密码啊</t>
+  </si>
+  <si>
+    <t>信用卡到期为什么要换卡?</t>
+  </si>
+  <si>
+    <t>发现自己的信用卡被盗刷 我们怎么办?</t>
+  </si>
+  <si>
+    <t>信用卡被盗刷怎么办?</t>
+  </si>
+  <si>
+    <t>提供个人信用报告查询服务,敬请广大用户注意</t>
+  </si>
+  <si>
+    <t>个人信用报告</t>
+  </si>
+  <si>
+    <t xml:space="preserve">信用卡激活如何设置密码? </t>
+  </si>
+  <si>
+    <t>香港的身份证能在内地银行开户吗</t>
+  </si>
+  <si>
+    <t>如果把钱做理财,中途需要用钱,可以提取出来吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">理财产品没到期,急需用钱可以取么? </t>
+  </si>
+  <si>
+    <t>我手机收不到信息是怎么回事啊?</t>
+  </si>
+  <si>
+    <t>为什么我的建行手机银行用不了</t>
+  </si>
+  <si>
+    <t>我在网上买的东西,手机号填错了怎么办啊</t>
+  </si>
+  <si>
+    <t>建设银行自助可以买燃气吗?</t>
+  </si>
+  <si>
+    <t>在国外怎样查工商银行卡的余额</t>
+  </si>
+  <si>
+    <t>我在国外怎么才可以查询中国建行帐号余额</t>
+  </si>
+  <si>
+    <t>银行卡余额变动没有信息以前有</t>
+  </si>
+  <si>
+    <t>信用卡境外刷卡要手续费吗?</t>
+  </si>
+  <si>
+    <t>开通了手机银行 该如何使用呢?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">为什么我的建设银行卡开通了短信服务却没有短信通知? </t>
+  </si>
+  <si>
+    <t>手机银行汇款,对方大概多久才收到款项!还是马上可以取款?</t>
+  </si>
+  <si>
+    <t>存折取钱收费用吗</t>
+  </si>
+  <si>
+    <t>银行取款密码忘了怎么办</t>
+  </si>
+  <si>
+    <t>有线电视费怎么用银行卡交?</t>
+  </si>
+  <si>
+    <t>我要用银行卡交话费怎么交</t>
+  </si>
+  <si>
+    <t>去银行激活信用卡需要什么</t>
+  </si>
+  <si>
+    <t>我要办理业务</t>
+  </si>
+  <si>
+    <t>终于知道快贷申请条件!!! - 建设银行讨论区</t>
+  </si>
+  <si>
+    <t>用信用卡消费后要多少时间还款?</t>
+  </si>
+  <si>
+    <t>客户优惠政策申请书</t>
+  </si>
+  <si>
+    <t>是写卡的,我现在想换卡,可以吗</t>
+  </si>
+  <si>
+    <t>我想更换银行卡</t>
+  </si>
+  <si>
+    <t>意外保险个人怎么交纳和办理保险</t>
+  </si>
+  <si>
+    <t>意外险怎样报,什么样流程,,要办理什么手续</t>
+  </si>
+  <si>
+    <t>我想买保险,具体流程怎样?</t>
+  </si>
+  <si>
+    <t>我国有哪些保险公司被批准办理企业年金业务?</t>
+  </si>
+  <si>
+    <t>如何办理"国民健康保险"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我想买医疗保险,到底该如何选择产品呢 </t>
+  </si>
+  <si>
+    <t>信用卡在超市购物刷卡时有手续费么?</t>
+  </si>
+  <si>
+    <t>我申请的信用卡已通过并在短信说寄出了,为何现在还没收到...</t>
+  </si>
+  <si>
+    <t>上个月还正常，这个月短信业务怎么就没了？</t>
+  </si>
+  <si>
+    <t>我是学生。可以申请信用卡吗</t>
+  </si>
+  <si>
+    <t>建行随芯用申请云闪付,验证码收不到怎么办</t>
+  </si>
+  <si>
+    <t>刚开通银行短信服务,为什么收不到信息</t>
+  </si>
+  <si>
+    <t>我的手机收不到银行发来的余额变动提醒短信</t>
+  </si>
+  <si>
+    <t>applepay一直收不到银行验证码,怎么办</t>
+  </si>
+  <si>
+    <t>银行卡用不了微信账号怎么办?</t>
+  </si>
+  <si>
+    <t>打开微信很卡怎么办?我只用这招就已解决科技网</t>
+  </si>
+  <si>
+    <t>手机银行己换手机号了怎么办</t>
+  </si>
+  <si>
+    <t>银行理财产品如何入账?_股城问答</t>
+  </si>
+  <si>
+    <t>开了短信通知，为什么工资打到卡上没有短信提示呢?</t>
+  </si>
+  <si>
+    <t>我刚刚到存钱,为什么手机没来短信?</t>
+  </si>
+  <si>
+    <t>粤通卡刷卡有没有手机提醒</t>
+  </si>
+  <si>
+    <t>国内的银行卡能在外国的atm机查余额么</t>
+  </si>
+  <si>
+    <t>为什么微信绑定不了银行卡</t>
+  </si>
+  <si>
+    <t>为什么我的银行卡密码正确又取不出钱?</t>
+  </si>
+  <si>
+    <t>我的中国银行卡密码输错10次怎么办?</t>
+  </si>
+  <si>
+    <t>银行卡在网上密码输错3次要多久能解锁</t>
+  </si>
+  <si>
+    <t>请问信用卡是只要激活就可以用吗?如何激活?</t>
+  </si>
+  <si>
+    <t>为什么我还没有收到信用卡,都已经寄出来好久了</t>
+  </si>
+  <si>
+    <t>请问信用卡制卡还需要时间吗?为什么我的信用卡审核已经通过但是收不到</t>
+  </si>
+  <si>
+    <t>信用卡一天最多能取多少钱</t>
+  </si>
+  <si>
+    <t>我的信用卡绑定的手机号码可以更换吗?</t>
+  </si>
+  <si>
+    <t>请问我要变更绑定信用卡的手机号码要怎么办?</t>
+  </si>
+  <si>
+    <t>信用卡还款怎么计算的?</t>
+  </si>
+  <si>
+    <t>我的信用卡的密码忘记了可以更改么?</t>
+  </si>
+  <si>
+    <t>我信用卡突然一下找不到了,应该怎么办啊?</t>
+  </si>
+  <si>
+    <t>我信用卡丢了,怎么还款,怎么注销?</t>
+  </si>
+  <si>
+    <t>银行卡在异地本行取款要收费么?</t>
+  </si>
+  <si>
+    <t>我的天河城信用卡在国外怎么收取手续费</t>
+  </si>
+  <si>
+    <t>我的银行卡怎么在支付宝用不了</t>
+  </si>
+  <si>
+    <t>我上个月银行卡手机银行还转过账的,今天为什么不好转呢?</t>
+  </si>
+  <si>
+    <t>手机开户身份证读不出来,怎么才能开户?</t>
+  </si>
+  <si>
+    <t>银行卡跨省存钱,需要手续费吗?</t>
+  </si>
+  <si>
+    <t>...但是为什么只有入账和出账通知,没有余额显示呢?...</t>
+  </si>
+  <si>
+    <t>银行没有余额短信提醒怎么查余额</t>
+  </si>
+  <si>
+    <t>建行etc扣款有短信通知吗</t>
+  </si>
+  <si>
+    <t>本地银行卡在本地存钱需要收取手续费吗?</t>
+  </si>
+  <si>
+    <t>银行卡绑定了手机为什么有钱进账没有短信提醒啊</t>
+  </si>
+  <si>
+    <t>办信用卡什么时候可以拿到手 办信用卡多久能拿到卡</t>
+  </si>
+  <si>
+    <t>未成年人怎么开银行账户</t>
+  </si>
+  <si>
+    <t xml:space="preserve">快贷极速贷逾期利息是多少 </t>
+  </si>
+  <si>
+    <t>银行网上支付委托扣款三方协议 是什么意思</t>
+  </si>
+  <si>
+    <t>银行刷卡消费的单据有必要留着吗?</t>
+  </si>
+  <si>
+    <t>我的信用卡消费时为什么没有短信通知?</t>
+  </si>
+  <si>
+    <t>快贷为什么审批不通过?|快贷审批_小额贷款问答</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我的建行银行卡以前有短信通知现在为什么没有了 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">为什么建设银行短信通知没显示余额 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">为什么钱打到卡里手机短信没有收到 </t>
+  </si>
+  <si>
+    <t>我的手机为什么短信暂停服务的呢?</t>
+  </si>
+  <si>
+    <t>我的微信上怎么不能用银行卡了</t>
+  </si>
+  <si>
+    <t>在网上买东西,为什么会显示手机号码与银行预留的不对?</t>
+  </si>
+  <si>
+    <t>网点名称是什么</t>
+  </si>
+  <si>
+    <t>外籍人士如何办理中国银行卡</t>
+  </si>
+  <si>
+    <t>外国国籍在中国办银行业务需要什么证件</t>
+  </si>
+  <si>
+    <t>在异地拿自己的银行卡存钱要手续费吗?</t>
+  </si>
+  <si>
+    <t>在外地,用建设银行的卡进行存款要不要给手续费,怎么收取费...</t>
+  </si>
+  <si>
+    <t>建行用存折在异地存款取款要多少手续费?</t>
+  </si>
+  <si>
+    <t>用存折到异地银行取钱要收费吗</t>
+  </si>
+  <si>
+    <t>退休人员领取公积金需要哪些证件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">退休后住房公积金如何提取?需要注意什么? </t>
+  </si>
+  <si>
+    <t>信用卡一次最多可以取出多少现金?</t>
+  </si>
+  <si>
+    <t>信用卡一次可以取多少钱?</t>
+  </si>
+  <si>
+    <t>我想办一张透支3千到5万的信用卡可以吗?</t>
+  </si>
+  <si>
+    <t>建设银行信用卡取现手续费怎么算?</t>
+  </si>
+  <si>
+    <t>信用卡可以取现金用吗?合法吗?</t>
+  </si>
+  <si>
+    <t>手机银行跨行转账到工行要多久到账?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">手机银行转账有限额吗 </t>
+  </si>
+  <si>
+    <t>提额_信用卡提额_信用卡提高额度_方法_技巧_招行_建行</t>
+  </si>
+  <si>
+    <t>一文帮你秒懂随借随还是什么意思</t>
+  </si>
+  <si>
+    <t>随借随还</t>
+  </si>
+  <si>
+    <t>ETC是怎么扣费的?</t>
+  </si>
+  <si>
+    <t>ETC速通卡客服网站</t>
+  </si>
+  <si>
+    <t>速通卡电子标签损坏怎么办 速通卡电子标签使用小Tips</t>
+  </si>
+  <si>
+    <t>etc电子标签掉了能换吗</t>
+  </si>
+  <si>
+    <t>手机转账多久才能收到</t>
+  </si>
+  <si>
+    <t>手机银行转账一次最多能转多少钱</t>
+  </si>
+  <si>
+    <t>我已开了手机银行、怎么就转不了帐吗?</t>
+  </si>
+  <si>
+    <t>手机银行转账一直不到账怎么办</t>
+  </si>
+  <si>
+    <t>手机银行跨行转账能多长时间到账</t>
+  </si>
+  <si>
+    <t>手机银行转帐有限额吗?</t>
+  </si>
+  <si>
+    <t>为什么手机银行提示不能转账超过5000元</t>
+  </si>
+  <si>
+    <t>手机银行打不开怎么办?</t>
+  </si>
+  <si>
+    <t>手机银行打不开怎么处理</t>
+  </si>
+  <si>
+    <t>手机银行一次最多可以转款多少?</t>
+  </si>
+  <si>
+    <t>在手机上可以申请信用卡吗?</t>
+  </si>
+  <si>
+    <t>中国银行手机银行可以申请信用卡吗</t>
+  </si>
+  <si>
+    <t>解除建行手机银行与原客户端设备的绑定</t>
+  </si>
+  <si>
+    <t>个人使用手机银行进行转账,一般多久到账?</t>
+  </si>
+  <si>
+    <t>为什么手机银行登不上?</t>
+  </si>
+  <si>
+    <t>网上交易手机,双方不认识。怎么交易安全。</t>
+  </si>
+  <si>
+    <t>外地车辆办理ETC怎么办理</t>
+  </si>
+  <si>
+    <t>异地车牌可以办理etc吗</t>
+  </si>
+  <si>
+    <t>如何注销建行ETC卡</t>
+  </si>
+  <si>
+    <t>ETC建行速通卡办理账户变更指南</t>
+  </si>
+  <si>
+    <t>使用信用卡要注意哪些事项_信用卡使用技巧</t>
+  </si>
+  <si>
+    <t>使用信用卡时应该注意些什么问题?</t>
+  </si>
+  <si>
+    <t>民间借贷滞纳金是什么意思</t>
+  </si>
+  <si>
+    <t>账户管理</t>
+  </si>
+  <si>
+    <t>建设银行信用卡中的约定还款是什么意思</t>
+  </si>
+  <si>
+    <t>银行券</t>
+  </si>
+  <si>
+    <t>纸币和银行券是啥关系啊</t>
+  </si>
+  <si>
+    <t>回单</t>
+  </si>
+  <si>
+    <t>问什么是银行代销产品：</t>
+  </si>
+  <si>
+    <t>如何分辨银行自身产品和代销产品?</t>
+  </si>
+  <si>
+    <t>现金管理账单</t>
+  </si>
+  <si>
+    <t>投资连结保险</t>
+  </si>
+  <si>
+    <t>日常管家是什么</t>
+  </si>
+  <si>
+    <t>建行推出“账户商品”交易？</t>
+  </si>
+  <si>
+    <t>基金定投</t>
+  </si>
+  <si>
+    <t>基金定投是什么意思?它有哪些好处?</t>
+  </si>
+  <si>
+    <t>基金是什么?怎么运作?</t>
+  </si>
+  <si>
+    <t>分红型保险</t>
+  </si>
+  <si>
+    <t>分红险是什么?</t>
+  </si>
+  <si>
+    <t>信用卡的账单日和到期还款日是什么意思的?</t>
+  </si>
+  <si>
+    <t>保险公司规定的犹豫期有什么意义</t>
+  </si>
+  <si>
+    <t>什么情况下可以提取住房公积金</t>
+  </si>
+  <si>
+    <t>哪些情况可以提取住房公积金</t>
+  </si>
+  <si>
+    <t>身份证莫名其妙被人用去银行开户怎么办</t>
+  </si>
+  <si>
+    <t>身份证消磁了能办理银行卡吗</t>
+  </si>
+  <si>
+    <t>身份证没有磁性可以办银行卡吗</t>
+  </si>
+  <si>
+    <t>2015年各银行贵宾卡办理条件</t>
+  </si>
+  <si>
+    <t>提交信用卡申请后,一般多长时间能收到信用卡?</t>
+  </si>
+  <si>
+    <t>一般柜台申请贵宾卡后多久会来通知去取卡</t>
+  </si>
+  <si>
+    <t>办理信用卡最基本条件是什么</t>
+  </si>
+  <si>
+    <t>自助汇款</t>
+  </si>
+  <si>
+    <t>招商银行信用卡申请临时额度怎样申请</t>
+  </si>
+  <si>
+    <t>信用卡的临时额度怎么申请?</t>
+  </si>
+  <si>
+    <t>怎么在网上缴交通违章罚款</t>
+  </si>
+  <si>
+    <t>...ETC速通卡如何查询交易明细?</t>
+  </si>
+  <si>
+    <t>怎么查询建行信用卡的可用余额?</t>
+  </si>
+  <si>
+    <t>知道车牌号怎么查车辆信息</t>
+  </si>
+  <si>
+    <t>车辆信息查询系统</t>
+  </si>
+  <si>
+    <t>用卡小知识:怎样保管银行卡</t>
+  </si>
+  <si>
+    <t>应该怎么办理约定还款约定还款的方式具体是什么样的?</t>
+  </si>
+  <si>
+    <t>建设银行信用卡做不做约定还款</t>
+  </si>
+  <si>
+    <t>建行结算通卡怎么办理</t>
+  </si>
+  <si>
+    <t>如何办理建行VIP</t>
+  </si>
+  <si>
+    <t>建行手机银行如何下载和使用</t>
+  </si>
+  <si>
+    <t>怎样安全使用信用卡——使用技巧</t>
+  </si>
+  <si>
+    <t>办理房屋抵押贷款需要找银行的哪个部门?需要开什么证明吗</t>
+  </si>
+  <si>
+    <t>快贷和一半贷款有什么不同</t>
+  </si>
+  <si>
+    <t>借款利息在什么时候开始计算,利率怎么算</t>
+  </si>
+  <si>
+    <t>贷款什么时候开始算利息?</t>
+  </si>
+  <si>
+    <t>现在办银行卡收费不,费用多少?</t>
+  </si>
+  <si>
+    <t>请问申请信用卡需要什么个人条件?</t>
+  </si>
+  <si>
+    <t>汽车违章罚款后的几种缴费方法汇总</t>
+  </si>
+  <si>
+    <t>交通违法有罚单，怎样通过手机网上交罚款？</t>
+  </si>
+  <si>
+    <t>在银行办信用卡需要什么条件</t>
+  </si>
+  <si>
+    <t>银行一般上班时间是几点啊?</t>
+  </si>
+  <si>
+    <t>你们都什么时候下班?</t>
+  </si>
+  <si>
+    <t>附近有什么银行 ATM机那种</t>
+  </si>
+  <si>
+    <t>理财产品能提前取出来吗</t>
+  </si>
+  <si>
+    <t>理财没到期可以取出吗 有些是可以提前支取的</t>
+  </si>
+  <si>
+    <t>怎么办vip卡</t>
+  </si>
+  <si>
+    <t>etc怎么办理 ETC速通卡在哪些银行可办理，哪些车辆可以办理</t>
+  </si>
+  <si>
+    <t>交通罚款怎么交</t>
+  </si>
+  <si>
+    <t>在外省办卡,回老家取钱,收费吗</t>
+  </si>
+  <si>
+    <t>什么是民生工程</t>
+  </si>
+  <si>
+    <t>银行可以买黄金吗怎么买 扒一扒买黄金去哪个银行好</t>
+  </si>
+  <si>
+    <t>我去商场买东西用信用卡刷卡,为什么商家要收取手续费|刷卡...</t>
+  </si>
+  <si>
+    <t>龙卡通能选号吗</t>
+  </si>
+  <si>
+    <t>龙卡通是否有发卡要求</t>
+  </si>
+  <si>
+    <t>建行的龙卡能不能换卡不换号</t>
+  </si>
+  <si>
+    <t>在建设银行申请龙卡通开户最低要多钱?同时开通网银要多少钱?</t>
+  </si>
+  <si>
+    <t>龙卡通能关联其他账户吗</t>
+  </si>
+  <si>
+    <t>建设银行龙卡通储蓄 觉得卡面不好看 怎样才能换个卡面好看的</t>
+  </si>
+  <si>
+    <t>建设银行龙卡通储蓄卡国外取外币怎样收费</t>
+  </si>
+  <si>
+    <t>龙卡通境外通过银联网络的ATM取现手续费</t>
+  </si>
+  <si>
+    <t>龙卡储蓄卡开户收多少钱</t>
+  </si>
+  <si>
+    <t>临时身份证可以办建设银行卡吗?</t>
+  </si>
+  <si>
+    <t>临时身份证银行开户</t>
+  </si>
+  <si>
+    <t>身份证刚丢了,现在只有临时身份证,可以办理开户吗?</t>
+  </si>
+  <si>
+    <t>利率怎么算出来的</t>
+  </si>
+  <si>
+    <t>理财产品赎回后,资金要多久才能到账</t>
+  </si>
+  <si>
+    <t>理财产品投资期限多长的最新相关信息</t>
+  </si>
+  <si>
+    <t>银行理财怎么选时间?产品期限多久才合适</t>
+  </si>
+  <si>
+    <t>怎样查我购买的理财产品?已到期的理财为何钱没进帐?</t>
+  </si>
+  <si>
+    <t>理财产品到期后立刻就能取出来吧?</t>
+  </si>
+  <si>
+    <t>理财产品到期如何赎回</t>
+  </si>
+  <si>
+    <t>银行理财产品到期怎么取回呢?</t>
+  </si>
+  <si>
+    <t>信托产品到期后几时到帐</t>
+  </si>
+  <si>
+    <t>离我最近的建行在哪?怎么走?</t>
+  </si>
+  <si>
+    <t>离我最近的建设银行在哪儿</t>
+  </si>
+  <si>
+    <t>身份证五分钟快速贷款真假难辨?一键秒懂!</t>
+  </si>
+  <si>
+    <t>建行快贷用途有无限制?</t>
+  </si>
+  <si>
+    <t>快贷退款多长时间到账</t>
+  </si>
+  <si>
+    <t>建行快贷提现能转账吗?</t>
+  </si>
+  <si>
+    <t>关于建行快贷之融e贷线下签约流程说明及注意事项!</t>
+  </si>
+  <si>
+    <t>速通卡无法正常使用怎么处理</t>
+  </si>
+  <si>
+    <t>如何修改客户信息?</t>
+  </si>
+  <si>
+    <t>还贷款的银行卡挂失后,重新补了一张新卡,可以继续还贷...</t>
+  </si>
+  <si>
+    <t>银行卡丢失并挂失了,但每月要还贷款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">快贷还清 当天能恢复额度吗 </t>
+  </si>
+  <si>
+    <t>速通卡欠费是否可以用绑定银行卡交款</t>
+  </si>
+  <si>
+    <t>小孩能开银行账户吗</t>
+  </si>
+  <si>
+    <t>信用卡可以代办吗?</t>
+  </si>
+  <si>
+    <t>银行开张卡要多少钱,最少要存多少钱</t>
+  </si>
+  <si>
+    <t>开张银行卡手续费要多少钱?</t>
+  </si>
+  <si>
+    <t>银行交学费需要什么银行卡</t>
+  </si>
+  <si>
+    <t>一般账户开户需要什么条件</t>
+  </si>
+  <si>
+    <t>办理信用卡需要什么材料 办信用卡需要什么资料</t>
+  </si>
+  <si>
+    <t>开户要钱吗</t>
+  </si>
+  <si>
+    <t>开户需要准备什么资料</t>
+  </si>
+  <si>
+    <t>新注册的公司怎么开对公账户,需要什么条件</t>
+  </si>
+  <si>
+    <t>公司开基本户需要什么资料？</t>
+  </si>
+  <si>
+    <t>开企业一般户都需要那些资料?</t>
+  </si>
+  <si>
+    <t>请教一下。开本子是不是要收费</t>
+  </si>
+  <si>
+    <t>开放式基金种类及特点</t>
+  </si>
+  <si>
+    <t>银行柜台定期存折本开户需多少钱</t>
+  </si>
+  <si>
+    <t>现在存折要收年费吗?现在开存折要收年费吗?可以在存...</t>
+  </si>
+  <si>
+    <t>银行卡被自动提款机吃了怎么办?</t>
+  </si>
+  <si>
+    <t>银行卡被ATM机吞了怎么办?</t>
+  </si>
+  <si>
+    <t>境外旅游须知:境外用卡消费哪些地方需要注意?</t>
+  </si>
+  <si>
+    <t>...取现),刷卡时需要出示持卡人本人身份证吗?</t>
+  </si>
+  <si>
+    <t>信用卡消费用出示身份证件吗?</t>
+  </si>
+  <si>
+    <t>在境外交行信用卡刷卡手续费是多少?怎么收取?</t>
+  </si>
+  <si>
+    <t>平安金管家有哪些用处</t>
+  </si>
+  <si>
+    <t>平安金管家用途及功能介绍 功能及使用方法</t>
+  </si>
+  <si>
+    <t>黄金td价格,黄金T+D行情,黄金T+D价格走势</t>
+  </si>
+  <si>
+    <t>今天黄金价格多少?附国内各大品牌金店最新价格表</t>
+  </si>
+  <si>
+    <t>今日国际黄金价格_今天国际黄金价格</t>
+  </si>
+  <si>
+    <t>国际黄金价格_国际黄金价格走势图</t>
+  </si>
+  <si>
+    <t>国际白银价格走势</t>
+  </si>
+  <si>
+    <t>银联卡紧急现金支援服务如何使用</t>
+  </si>
+  <si>
+    <t>银联借记卡境外ATM取现手续费一览</t>
+  </si>
+  <si>
+    <t>银行借记卡卡存钱要手续费吗?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">银联卡境外取款当地ATM收单机构手续费一览表 </t>
+  </si>
+  <si>
+    <t>建行的95533说通行费代扣不成功怎么办</t>
+  </si>
+  <si>
+    <t>中国建设银行-网点及ATM查询</t>
+  </si>
+  <si>
+    <t>建行信用卡刚收到新卡怎么用</t>
+  </si>
+  <si>
+    <t>信用卡美元账单怎么还款?</t>
+  </si>
+  <si>
+    <t>建行信用卡有效期(mmyy)指什么</t>
+  </si>
+  <si>
+    <t>建设银行信用卡审核时间一般需要多久呀?</t>
+  </si>
+  <si>
+    <t>你好?建设银行信用卡一般审核下来多长时间呀</t>
+  </si>
+  <si>
+    <t>建行信用卡取现,怎么个还款?</t>
+  </si>
+  <si>
+    <t>建行信用卡未签约是什么意思</t>
+  </si>
+  <si>
+    <t>建设银行信用卡未签约是什么意思</t>
+  </si>
+  <si>
+    <t>建行信用卡开通之后不使用会产生什么费用和影响??</t>
+  </si>
+  <si>
+    <t>建行信用卡卡种有什么区别</t>
+  </si>
+  <si>
+    <t>建行信用卡积分都能干什么?</t>
+  </si>
+  <si>
+    <t>建行信用卡积分能用来做什么?</t>
+  </si>
+  <si>
+    <t>建行信用卡免息期多少天</t>
+  </si>
+  <si>
+    <t>建行信用卡初始密码是多少</t>
+  </si>
+  <si>
+    <t>建行信用卡初始密码是什么?</t>
+  </si>
+  <si>
+    <t>建行信用卡 状态不正常多长时间能解除</t>
+  </si>
+  <si>
+    <t>建行手机银行网址</t>
+  </si>
+  <si>
+    <t>建设银行龙卡(储蓄卡)在建行本地ATM机上取款收费吗?...</t>
+  </si>
+  <si>
+    <t>建行怎么样?</t>
+  </si>
+  <si>
+    <t>建行贵宾卡有什么好处?|建行贵宾卡</t>
+  </si>
+  <si>
+    <t>建行贵宾卡有几种?|建行贵宾卡</t>
+  </si>
+  <si>
+    <t>《光明日报》:建设银行的“刘艳快线”:让一切快并...-中国建设银行</t>
+  </si>
+  <si>
+    <t>建设银行:“刘艳快线”让金融服务有温度</t>
+  </si>
+  <si>
+    <t>获赠建行速通卡后,电子标签是否要交费</t>
+  </si>
+  <si>
+    <t>换手机后转账突然限额5000了,该怎么办?</t>
+  </si>
+  <si>
+    <t>问换卡卡号会变更吗?：</t>
+  </si>
+  <si>
+    <t>建设银行信用卡换卡卡号会变吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">信用卡境外消费手续费? </t>
+  </si>
+  <si>
+    <t>国外刷信用卡收手续费吗?怎么收取呢?</t>
+  </si>
+  <si>
+    <t>VIP卡有哪些服务</t>
+  </si>
+  <si>
+    <t>银行卡挂失</t>
+  </si>
+  <si>
+    <t>企业银行开户需要什么条件</t>
+  </si>
+  <si>
+    <t>公积金贷款首付比例_公积金贷款首付多少_公积金贷款首付几年</t>
+  </si>
+  <si>
+    <t>住房公积金贷款首付比例是多少?</t>
+  </si>
+  <si>
+    <t>实用贴,手把手教你修改银行卡预留手机号码</t>
+  </si>
+  <si>
+    <t>小孩办理银行开户 身份证可以吗</t>
+  </si>
+  <si>
+    <t>未成年人在银行开立账户需要提供哪些证件</t>
+  </si>
+  <si>
+    <t>个人如何申请贷款,条件是什么?</t>
+  </si>
+  <si>
+    <t>个人去银行办理贷款,需要什么条件?|银行贷款_贷款问答</t>
+  </si>
+  <si>
+    <t>信用卡密码可以更改吗</t>
+  </si>
+  <si>
+    <t>附近哪里还有建设银行</t>
+  </si>
+  <si>
+    <t>信用卡分期计算器_信用卡分期付款计算器</t>
+  </si>
+  <si>
+    <t>【装修提取公积金】装修房子可以提取公积金,装修房子可以...</t>
+  </si>
+  <si>
+    <t>额度有多少,那我该怎么查询</t>
+  </si>
+  <si>
+    <t>在银行一次要存多少钱才算是大额存单?</t>
+  </si>
+  <si>
+    <t>2017年大额存款怎么存呢,我手上有几十万想存起来,就当做理财使用。</t>
+  </si>
+  <si>
+    <t>大额存单多少起存 大额存单怎么存才划算</t>
+  </si>
+  <si>
+    <t>如何办理对公账号？</t>
+  </si>
+  <si>
+    <t>如何使用工商银行APP 设置短信余额提醒服务</t>
+  </si>
+  <si>
+    <t>手机显示“短信功能无法使用”是什么原因?</t>
+  </si>
+  <si>
+    <t>手机短信功能无法使用,怎么解决</t>
+  </si>
+  <si>
+    <t>存款利率表_2018年各大银行最新银行存款利率表</t>
+  </si>
+  <si>
+    <t>银行信息港-银行金融财经门户网,以银行存款利率、银行贷款利率等...</t>
+  </si>
+  <si>
+    <t>定期存款是什么</t>
+  </si>
+  <si>
+    <t>存款单可以作为质押物吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">什么是电子银行业务?电子银行业务包括哪些种类? </t>
+  </si>
+  <si>
+    <t>单日最高500万 建设银行电子渠道转账额度大提升</t>
+  </si>
+  <si>
+    <t>银行信用卡每月还款日是哪一天?</t>
+  </si>
+  <si>
+    <t>信用卡到期以后还能继续使用吗?有效期在哪可以看到啊?</t>
+  </si>
+  <si>
+    <t>建行单位人民币结算卡丢失,该如何补办?</t>
+  </si>
+  <si>
+    <t>建设银行结算卡怎么用</t>
+  </si>
+  <si>
+    <t>用单位结算卡去提款机转账 提款机显示要填凭证号怎么弄?</t>
+  </si>
+  <si>
+    <t>公司办了单位结算卡在取款机上取钱会计做账有影响吗</t>
+  </si>
+  <si>
+    <t>建行单位结算卡可以在ATM机上取现吗</t>
+  </si>
+  <si>
+    <t>什么是单位结算卡?单位客户使用结算卡可以办理哪些业务?</t>
+  </si>
+  <si>
+    <t>建行单位结算卡密码被锁可以委托它人办理重置密码么</t>
+  </si>
+  <si>
+    <t>中国建设银行单位结算卡密码可以错几次?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">商业银行贷款期限是多少_贷款知识 </t>
+  </si>
+  <si>
+    <t>还清贷款后，贷款账号怎么删除</t>
+  </si>
+  <si>
+    <t>建行贷记卡取现要手续费吗</t>
+  </si>
+  <si>
+    <t>贷记卡境内取现手续费,境外通过国际组织取现手续费</t>
+  </si>
+  <si>
+    <t>带银联标识的龙卡在国外取款怎么收取手续费</t>
+  </si>
+  <si>
+    <t>央行:大额存单个人认购起点金额降至20万元</t>
+  </si>
+  <si>
+    <t>大额存单利息的最新相关信息</t>
+  </si>
+  <si>
+    <t>中国银行大额存单利率多少?</t>
+  </si>
+  <si>
+    <t>现在银行开户办储蓄卡要手续费吗?卡</t>
+  </si>
+  <si>
+    <t>在不同银行取款收多少手续费?我是储蓄卡</t>
+  </si>
+  <si>
+    <t>银联储蓄卡境外ATM取现手续费一览</t>
+  </si>
+  <si>
+    <t>关于银行储蓄卡挂失的问题</t>
+  </si>
+  <si>
+    <t>储蓄卡存款要手续费吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出国用储蓄卡取现手续费怎么收? </t>
+  </si>
+  <si>
+    <t>信用卡出国消费收多少手续费</t>
+  </si>
+  <si>
+    <t xml:space="preserve">储蓄卡出国取现手续收多少? </t>
+  </si>
+  <si>
+    <t>刚买了车,办了个ETC卡,怎么进行ETC手机充值?</t>
+  </si>
+  <si>
+    <t>车辆所有人变更问题,请高人指点!!!</t>
+  </si>
+  <si>
+    <t>建行车e贷额度及支用方式说明</t>
+  </si>
+  <si>
+    <t>使用建行车e贷需要把车抵押给银行吗</t>
+  </si>
+  <si>
+    <t>建设银行车e贷申请条件有哪些?这四条缺一不可!</t>
+  </si>
+  <si>
+    <t>好车e贷的贷款利息是多少</t>
+  </si>
+  <si>
+    <t>好车e贷的利率是多少?|好车e贷利率</t>
+  </si>
+  <si>
+    <t>怎么查自己的信用卡的还款日</t>
+  </si>
+  <si>
+    <t>粤通卡需要具备哪些条件才能申办呢?</t>
+  </si>
+  <si>
+    <t>怎么样才可以办信用卡?要什么条件啊?</t>
+  </si>
+  <si>
+    <t>正常情况下办理信用卡多长时间可以拿到卡呢?</t>
+  </si>
+  <si>
+    <t>我要办网银怎么办</t>
+  </si>
+  <si>
+    <t>办理网银需要的手续</t>
+  </si>
+  <si>
+    <t>我是个体户,办理建设银行信用卡都需要什么?</t>
+  </si>
+  <si>
+    <t>建设银行etc信用卡有什么有点</t>
+  </si>
+  <si>
+    <t>个人办理住房公积金需要带什么证件和材料</t>
+  </si>
+  <si>
+    <t>车主如何变更车辆共同所有人? 需要携带好相关证件</t>
+  </si>
+  <si>
+    <t>我想办理VIP卡</t>
+  </si>
+  <si>
+    <t>澳门居民在大陆开户</t>
+  </si>
+  <si>
+    <t>TEC卡缴费短信通知怎么开通</t>
+  </si>
+  <si>
+    <t>ETC卡没钱了怎么存钱</t>
+  </si>
+  <si>
+    <t>ETC卡没线了？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">建行“快诊通”,为健康生活保驾护航 </t>
+  </si>
+  <si>
+    <t>信用卡额度太少</t>
+  </si>
+  <si>
+    <t>申请信用卡多久可以收到</t>
+  </si>
+  <si>
+    <t>额度有多少</t>
+  </si>
+  <si>
+    <t>分期手续费</t>
+  </si>
+  <si>
+    <t>我要激活信用卡</t>
+  </si>
+  <si>
+    <t>我的信用卡怎么激活</t>
+  </si>
+  <si>
+    <t>开公司帐户要什么要求</t>
+  </si>
+  <si>
+    <t>开个公司一般户，要什么条件</t>
+  </si>
+  <si>
+    <t>公司开户有什么要求</t>
+  </si>
+  <si>
+    <t>对公户怎么办理</t>
+  </si>
+  <si>
+    <t>外地账号取款要收费吗</t>
+  </si>
+  <si>
+    <t>外地卡取款要不要收手续费</t>
+  </si>
+  <si>
+    <t>外地存折取款要不要收费</t>
+  </si>
+  <si>
+    <t>其它银行柜员机取款手续费</t>
+  </si>
+  <si>
+    <t>借记卡境内取款手续费</t>
+  </si>
+  <si>
+    <t>建行卡去工行取钱收多少手续费</t>
+  </si>
+  <si>
+    <t>储蓄卡取款收多少手续费</t>
+  </si>
+  <si>
+    <t>中国建设银行异地转账手续费</t>
+  </si>
+  <si>
     <t>中国建设银行转账手续费</t>
   </si>
   <si>
-    <t>中国建设银行异地转账手续费</t>
-  </si>
-  <si>
-    <t>中国建设银行异地取款手续费</t>
-  </si>
-  <si>
     <t>中国建设银行异地跨行转账手续费</t>
   </si>
   <si>
-    <t>中国建设银行异地跨行取款手续费</t>
-  </si>
-  <si>
-    <t>中国建设银行异地存款手续费</t>
-  </si>
-  <si>
-    <t>中国建设银行微信公众号</t>
-  </si>
-  <si>
-    <t>中国建设银行跨行取款手续费</t>
-  </si>
-  <si>
-    <t>中国建设银行的转型方向是什么</t>
-  </si>
-  <si>
-    <t>中国建设银行的英文简称是什么</t>
-  </si>
-  <si>
-    <t>中国建设银行成立时间</t>
-  </si>
-  <si>
-    <t>质押贷是否支持外币</t>
-  </si>
-  <si>
-    <t>只签约开通手机银行，未签约网银，可以在手机银行申请快贷吗？</t>
-  </si>
-  <si>
-    <t>帐单分期手续费</t>
-  </si>
-  <si>
-    <t>怎样办理银行卡</t>
-  </si>
-  <si>
-    <t>怎样办理速通卡</t>
-  </si>
-  <si>
-    <t>怎么支付交警罚款</t>
-  </si>
-  <si>
-    <t>怎么我的手机银行只能转5000元呢</t>
-  </si>
-  <si>
-    <t>怎么申请支票</t>
-  </si>
-  <si>
-    <t>怎么开通龙支付</t>
-  </si>
-  <si>
-    <t>怎么计算我的还款日</t>
-  </si>
-  <si>
-    <t>怎么查询住房公积金缴存情况？</t>
-  </si>
-  <si>
-    <t>怎么办理粤通卡</t>
+    <t>粤通卡除了上高速使用，在其它地方还可以用吗</t>
+  </si>
+  <si>
+    <t>我的ETC卡还有什么功能</t>
+  </si>
+  <si>
+    <t>香港居民可以开户吗</t>
+  </si>
+  <si>
+    <t>外国人用什么证件开户</t>
+  </si>
+  <si>
+    <t>其它证件开户</t>
+  </si>
+  <si>
+    <t>信用卡办卡条件</t>
+  </si>
+  <si>
+    <t>透支卡我可以办吗</t>
+  </si>
+  <si>
+    <t>请问办理信用卡有要求吗</t>
+  </si>
+  <si>
+    <t>开信用卡要什么资料</t>
   </si>
   <si>
     <t>怎么办理高速卡</t>
   </si>
   <si>
-    <t>怎么办理ETC卡</t>
-  </si>
-  <si>
-    <t>在自动提款机上取了钱，为什么没有短信提示，短信提示是开通的</t>
-  </si>
-  <si>
-    <t>在网上签合同与贷款机构签合同具有一样的法律效力吗？</t>
+    <t>粤通卡要怎么办啊</t>
+  </si>
+  <si>
+    <t>你们银行的ETC卡要怎么办</t>
+  </si>
+  <si>
+    <t>我存钱给家里的卡收手续费吗</t>
+  </si>
+  <si>
+    <t>信用卡到期换卡密码是一样的吗</t>
+  </si>
+  <si>
+    <t>我用手机银行汇款对方多久收到</t>
+  </si>
+  <si>
+    <t>手机转帐什么时候可以到帐</t>
+  </si>
+  <si>
+    <t>手机银行转帐成功，对方什么时间可以收到</t>
+  </si>
+  <si>
+    <t>手机银行汇款到帐时间</t>
+  </si>
+  <si>
+    <t>信用卡在柜员机取款</t>
+  </si>
+  <si>
+    <t>信用卡可以取现金吗</t>
+  </si>
+  <si>
+    <t>我的信用卡一次可以取多少钱</t>
+  </si>
+  <si>
+    <t>透支卡一次能取多少</t>
+  </si>
+  <si>
+    <t>贷记卡取现</t>
+  </si>
+  <si>
+    <t>信用卡还款渠道</t>
+  </si>
+  <si>
+    <t>理财产品满期后多久进帐</t>
+  </si>
+  <si>
+    <t>理财产品到期后怎么返还</t>
+  </si>
+  <si>
+    <t>粤通卡信用卡过高速没有短信提醒</t>
+  </si>
+  <si>
+    <t>粤通卡高速通行费有没有信息</t>
+  </si>
+  <si>
+    <t>我的ETC卡收费有没有短信通知</t>
+  </si>
+  <si>
+    <t>我的卡到外地存钱要收手续费吗</t>
+  </si>
+  <si>
+    <t>外地卡存款要不要收手续费</t>
+  </si>
+  <si>
+    <t>家里人存钱到我的卡上要收费吗</t>
+  </si>
+  <si>
+    <t>储蓄卡存款要收费吗</t>
+  </si>
+  <si>
+    <t>信用卡被盗了怎么办</t>
+  </si>
+  <si>
+    <t>粤通卡怎么充值</t>
+  </si>
+  <si>
+    <t>粤通卡里的钱用完了，怎么充值</t>
+  </si>
+  <si>
+    <t>粤通卡充值点介绍</t>
+  </si>
+  <si>
+    <t>我的粤通卡存了钱怎么上高速用不了</t>
+  </si>
+  <si>
+    <t>高速卡充值</t>
+  </si>
+  <si>
+    <t>ETC卡没有钱了，怎么存款进去</t>
+  </si>
+  <si>
+    <t>离你们这最近的建行在哪儿</t>
+  </si>
+  <si>
+    <t>我在国外可以查询卡内余额吗</t>
+  </si>
+  <si>
+    <t>我的银行卡在国外的ATM上能查询到余额吗</t>
+  </si>
+  <si>
+    <t>开张银行卡要什么费</t>
+  </si>
+  <si>
+    <t>开银行卡要收费吗</t>
+  </si>
+  <si>
+    <t>开卡要交多少钱</t>
+  </si>
+  <si>
+    <t>开个发工资的卡，是怎么收费的</t>
+  </si>
+  <si>
+    <t>开储蓄卡要交多少钱</t>
+  </si>
+  <si>
+    <t>储蓄卡开户怎么收费</t>
+  </si>
+  <si>
+    <t>信用卡联系电话要改</t>
+  </si>
+  <si>
+    <t>信用卡地址不对收不到对帐单</t>
+  </si>
+  <si>
+    <t>我的信用卡要换手机号码</t>
+  </si>
+  <si>
+    <t>我以前开通的短信，没有余额显示</t>
+  </si>
+  <si>
+    <t>为什么我的短信不显示账户余额</t>
+  </si>
+  <si>
+    <t>短信通知可以告诉我卡里还有多少钱吗</t>
   </si>
   <si>
     <t>在网上交易后怎么没有短信发过来</t>
   </si>
   <si>
-    <t>在手机APP上转帐可以转多少</t>
-  </si>
-  <si>
-    <t>在你们行办的ETC卡，在哪里可以充值</t>
-  </si>
-  <si>
-    <t>在哪里可以查询客户的支用明细？</t>
-  </si>
-  <si>
-    <t>在境外刷卡取现是使用的什么币种？</t>
-  </si>
-  <si>
-    <t>在建行办理的ETC可以在全国高速路扣费使用么？</t>
-  </si>
-  <si>
-    <t>在国外用信用卡取款手续费收多少</t>
-  </si>
-  <si>
-    <t>粤通卡怎么充值</t>
-  </si>
-  <si>
-    <t>粤通卡在哪里可以充值</t>
-  </si>
-  <si>
-    <t>粤通卡要怎么办啊</t>
-  </si>
-  <si>
-    <t>粤通卡里的钱用完了，怎么充值</t>
-  </si>
-  <si>
-    <t>粤通卡可以在柜员机转账吗</t>
-  </si>
-  <si>
-    <t>粤通卡借记卡如何充值</t>
-  </si>
-  <si>
-    <t>粤通卡还有什么功能</t>
-  </si>
-  <si>
-    <t>粤通卡过高速没有短信提醒</t>
-  </si>
-  <si>
-    <t>粤通卡高速通行费有没有信息</t>
-  </si>
-  <si>
-    <t>粤通卡充值渠道</t>
-  </si>
-  <si>
-    <t>粤通借记卡充值</t>
-  </si>
-  <si>
-    <t>粤通储蓄卡还有其它用吗</t>
-  </si>
-  <si>
-    <t>约定还款余额不足</t>
-  </si>
-  <si>
-    <t>用信用卡刷卡要不要收续费</t>
-  </si>
-  <si>
-    <t>用手机转帐一次能转多少</t>
-  </si>
-  <si>
-    <t>用手机银行转帐一笔最多可以转多少</t>
-  </si>
-  <si>
-    <t>用手机APP转帐每天最多可以转多少</t>
-  </si>
-  <si>
-    <t>用临时身份证开户</t>
-  </si>
-  <si>
-    <t>银行支票</t>
-  </si>
-  <si>
-    <t>银行卡在国外用手续费</t>
+    <t>我账户设置了，账户变动短信提示的，怎么我账户变动了，没有提示拉</t>
+  </si>
+  <si>
+    <t>我有张储蓄卡 以前有短信提醒账户金额变动 现在没了怎么回事</t>
+  </si>
+  <si>
+    <t>我收不到账户变更提醒短信</t>
+  </si>
+  <si>
+    <t>我开通了短信银行咋不给我发短信</t>
+  </si>
+  <si>
+    <t>我开通了短信提醒业务。为什么帐号上做了汇款业务没有短信提醒我?</t>
+  </si>
+  <si>
+    <t>我刚存的钱怎么没收到短信通知呢</t>
+  </si>
+  <si>
+    <t>我的手机短信业务怎么停止了?</t>
+  </si>
+  <si>
+    <t>我的短信业务怎么停了啊，我卡上还有费呀</t>
+  </si>
+  <si>
+    <t>我绑定的银行卡有资金出入时，手机为何收不到短信</t>
+  </si>
+  <si>
+    <t>为什么我刷卡了没短信通知我</t>
+  </si>
+  <si>
+    <t>为什么我的金额进出短信提示没有了</t>
+  </si>
+  <si>
+    <t>为什么停止我的短信服务费呢</t>
+  </si>
+  <si>
+    <t>手机短信为什么自动停了</t>
+  </si>
+  <si>
+    <t>我有手机银行一次只转5000元，太少了</t>
+  </si>
+  <si>
+    <t>我的手机银行一次只可以转5000元</t>
+  </si>
+  <si>
+    <t>手机银行只可以转5000元</t>
+  </si>
+  <si>
+    <t>换了手机，现在手机转账只能转5000</t>
+  </si>
+  <si>
+    <t>身份证消磁了可以开户吗</t>
+  </si>
+  <si>
+    <t>临时身份证可以开银行卡吗</t>
+  </si>
+  <si>
+    <t>我开通云闪付收不到验证码</t>
+  </si>
+  <si>
+    <t>我开的卡怎么用不了微信</t>
+  </si>
+  <si>
+    <t>我的手机怎么在支付宝用不了</t>
+  </si>
+  <si>
+    <t>网上买东西提示手机号码不对</t>
+  </si>
+  <si>
+    <t>我有开通手机银行，怎么用不了呢</t>
+  </si>
+  <si>
+    <t>我的手机银行上个月还可以用，怎么现在转不了</t>
+  </si>
+  <si>
+    <t>为什么我的手机银行用不了啊</t>
+  </si>
+  <si>
+    <t>手机银行转账进不去了</t>
+  </si>
+  <si>
+    <t>手机银行怎么上不去了</t>
+  </si>
+  <si>
+    <t>手机银行登录不上了</t>
+  </si>
+  <si>
+    <t>汽车违章缴费</t>
+  </si>
+  <si>
+    <t>哪里可以交罚款</t>
+  </si>
+  <si>
+    <t>信用卡在外国取现手续费</t>
+  </si>
+  <si>
+    <t>透支卡国外取款手续费怎么收</t>
+  </si>
+  <si>
+    <t>贷记卡国外取现手续费</t>
+  </si>
+  <si>
+    <t>你们网点上班时间</t>
+  </si>
+  <si>
+    <t>银联龙卡国外取款手续费</t>
   </si>
   <si>
     <t>银行卡在国外可以取款吗</t>
   </si>
   <si>
-    <t>银行卡遗失怎么办</t>
-  </si>
-  <si>
-    <t>银行卡被吞怎么办</t>
-  </si>
-  <si>
-    <t>银行卡绑微信手机号码不对</t>
-  </si>
-  <si>
-    <t>银行对账单</t>
-  </si>
-  <si>
-    <t>以前存取钱会有短信提示。现在收不到了</t>
-  </si>
-  <si>
-    <t>遗忘住房公积金联名卡密码</t>
-  </si>
-  <si>
-    <t>一个人可以办几张建行信用卡：</t>
-  </si>
-  <si>
-    <t>信用卡最低还款额</t>
-  </si>
-  <si>
-    <t>信用卡资料修改</t>
-  </si>
-  <si>
-    <t>信用卡账单日</t>
-  </si>
-  <si>
-    <t>信用卡帐单、现金分期手续费</t>
-  </si>
-  <si>
-    <t>信用卡怎么修改每日交易额度？</t>
-  </si>
-  <si>
-    <t>信用卡怎么还款</t>
-  </si>
-  <si>
-    <t>信用卡在哪里激活</t>
-  </si>
-  <si>
-    <t>信用卡在柜员机取款</t>
-  </si>
-  <si>
-    <t>信用卡有哪些优势</t>
-  </si>
-  <si>
-    <t>信用卡有哪些分类</t>
-  </si>
-  <si>
-    <t>信用卡有几个等级</t>
-  </si>
-  <si>
-    <t>信用卡一般多久就要还钱</t>
-  </si>
-  <si>
-    <t>信用卡消费要手续费吗</t>
-  </si>
-  <si>
-    <t>信用卡透支后，怎么还款</t>
-  </si>
-  <si>
-    <t>信用卡透支后，什么时间还款</t>
-  </si>
-  <si>
-    <t>信用卡手机号变更</t>
-  </si>
-  <si>
-    <t>信用卡收到了怎么用呢</t>
-  </si>
-  <si>
-    <t>信用卡什么时间起源于哪个国家</t>
-  </si>
-  <si>
-    <t>信用卡什么时候还款</t>
-  </si>
-  <si>
-    <t>信用卡申办条件</t>
-  </si>
-  <si>
-    <t>信用卡取现</t>
-  </si>
-  <si>
-    <t>信用卡年费是多少？</t>
-  </si>
-  <si>
-    <t>信用卡年费</t>
-  </si>
-  <si>
-    <t>信用卡密码忘了</t>
+    <t>龙卡通出国取现手续费</t>
+  </si>
+  <si>
+    <t>借记卡国外取款手续费</t>
+  </si>
+  <si>
+    <t>建行卡在国外取款手续费</t>
+  </si>
+  <si>
+    <t>储蓄卡国外取现手续费</t>
+  </si>
+  <si>
+    <t>出国用储蓄卡取现手续费怎么收</t>
+  </si>
+  <si>
+    <t>理财产品要做多长时间</t>
+  </si>
+  <si>
+    <t>你们的卡VIP卡这么办</t>
+  </si>
+  <si>
+    <t>信用卡到期了要重新申请吗</t>
+  </si>
+  <si>
+    <t>到期的信用卡还可以用吗</t>
+  </si>
+  <si>
+    <t>开定期存折要不要收费</t>
+  </si>
+  <si>
+    <t>开存折要收费吗</t>
+  </si>
+  <si>
+    <t>信用卡取款要收费用吗</t>
+  </si>
+  <si>
+    <t>信用卡境内取现手续费</t>
+  </si>
+  <si>
+    <t>我的信用卡，在你们这里取款要不要收费</t>
+  </si>
+  <si>
+    <t>透支卡取现金手续费</t>
+  </si>
+  <si>
+    <t>透支卡取款费用怎么收</t>
+  </si>
+  <si>
+    <t>贷记卡取款手续费</t>
+  </si>
+  <si>
+    <t>用信用卡加油收费吗</t>
+  </si>
+  <si>
+    <t>信用卡买东西收费吗</t>
+  </si>
+  <si>
+    <t>我外地办的信用卡在这里购物刷卡收费吗</t>
+  </si>
+  <si>
+    <t>买东西刷信用卡要不要收费用</t>
+  </si>
+  <si>
+    <t>我办的信用卡什么时候能拿到</t>
+  </si>
+  <si>
+    <t>我的银行卡密码用不了了</t>
+  </si>
+  <si>
+    <t>我的银行卡密码输错3次了</t>
   </si>
   <si>
     <t>信用卡密码输错3次，被锁了</t>
   </si>
   <si>
-    <t>信用卡联系电话要改</t>
-  </si>
-  <si>
-    <t>信用卡联系地址更新</t>
-  </si>
-  <si>
-    <t>信用卡可以取现金吗</t>
+    <t>改信用卡密码</t>
+  </si>
+  <si>
+    <t>我有你们卡的信用卡，去国外消费要收手续费吗</t>
+  </si>
+  <si>
+    <t>我出国旅游，用你们行的信用卡买东西，收费吗</t>
+  </si>
+  <si>
+    <t>国外用信用卡支付手续费</t>
   </si>
   <si>
     <t>信用卡境外消费手续费</t>
-  </si>
-  <si>
-    <t>信用卡境外取现手续费</t>
-  </si>
-  <si>
-    <t>信用卡境内消费手续费</t>
-  </si>
-  <si>
-    <t>信用卡境内取现手续费</t>
-  </si>
-  <si>
-    <t>信用卡激活</t>
-  </si>
-  <si>
-    <t>信用卡积分会清零么？</t>
-  </si>
-  <si>
-    <t>信用卡还款小贴士</t>
-  </si>
-  <si>
-    <t>信用卡还款日怎么算</t>
-  </si>
-  <si>
-    <t>信用卡还款日</t>
-  </si>
-  <si>
-    <t>信用卡还款渠道</t>
-  </si>
-  <si>
-    <t>信用卡国外刷卡手续费</t>
-  </si>
-  <si>
-    <t>信用卡挂失</t>
-  </si>
-  <si>
-    <t>信用卡改密码</t>
-  </si>
-  <si>
-    <t>信用卡额度提高</t>
-  </si>
-  <si>
-    <t>信用卡额度太少</t>
-  </si>
-  <si>
-    <t>信用卡额度</t>
-  </si>
-  <si>
-    <t>信用卡丢了怎么办</t>
-  </si>
-  <si>
-    <t>信用卡丢了</t>
-  </si>
-  <si>
-    <t>信用卡地址不对收不到对帐单</t>
-  </si>
-  <si>
-    <t>信用卡的费用如何收取</t>
-  </si>
-  <si>
-    <t>信用卡到期怎么换卡</t>
-  </si>
-  <si>
-    <t>信用卡到期怎么办</t>
-  </si>
-  <si>
-    <t>信用卡到期了要重新申请吗</t>
-  </si>
-  <si>
-    <t>信用卡到期换卡密码是一样的吗</t>
-  </si>
-  <si>
-    <t>信用卡到期换卡密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">信用卡到期换卡 </t>
-  </si>
-  <si>
-    <t>信用卡出国消费手续费</t>
-  </si>
-  <si>
-    <t>信用卡被盗了怎么办</t>
-  </si>
-  <si>
-    <t>信用报告</t>
-  </si>
-  <si>
-    <t>新收到的信用卡怎么设置密码</t>
-  </si>
-  <si>
-    <t>香港居民可以开户吗</t>
-  </si>
-  <si>
-    <t>我做的理财如果急需用钱可以取吗</t>
-  </si>
-  <si>
-    <t>我怎么收不到短信了</t>
-  </si>
-  <si>
-    <t>我怎么不能用手机银行功能</t>
-  </si>
-  <si>
-    <t>我在网上买东西手机号码不对</t>
-  </si>
-  <si>
-    <t>我在建行能买天然气吗？</t>
-  </si>
-  <si>
-    <t>我在国外可以查询卡内余额吗</t>
-  </si>
-  <si>
-    <t>我有张储蓄卡 以前有短信提醒账户金额变动 现在没了怎么回事？</t>
-  </si>
-  <si>
-    <t>我有手机银行一次只转5000元，太少了</t>
-  </si>
-  <si>
-    <t>我有你们卡的信用卡，去国外消费要收手续费吗</t>
-  </si>
-  <si>
-    <t>我有开通手机银行，怎么用不了呢</t>
-  </si>
-  <si>
-    <t>我有开通短信通知但没有</t>
-  </si>
-  <si>
-    <t>我用手机银行汇款对方多久收到</t>
-  </si>
-  <si>
-    <t>我用存折取钱收费用吗</t>
-  </si>
-  <si>
-    <t>我银行卡密码忘了</t>
-  </si>
-  <si>
-    <t>我要交有线电视费</t>
-  </si>
-  <si>
-    <t>我要交话费</t>
-  </si>
-  <si>
-    <t>我要激活信用卡</t>
-  </si>
-  <si>
-    <t>我要办业务</t>
-  </si>
-  <si>
-    <t>我要办快贷</t>
-  </si>
-  <si>
-    <t>我信用卡消费了，要多长时间还款</t>
-  </si>
-  <si>
-    <t>我想申请优惠</t>
-  </si>
-  <si>
-    <t>我想换卡</t>
-  </si>
-  <si>
-    <t>我想办理意外保险</t>
-  </si>
-  <si>
-    <t>我想办理人寿保险</t>
-  </si>
-  <si>
-    <t>我想办理年金保险</t>
-  </si>
-  <si>
-    <t>我想办理健康保险</t>
-  </si>
-  <si>
-    <t>我想办理保险产品</t>
-  </si>
-  <si>
-    <t>我外地办的信用卡在这里购物刷卡收费吗</t>
-  </si>
-  <si>
-    <t>我申请的信用卡一直没有收到</t>
-  </si>
-  <si>
-    <t>我上个月还可以收到短信，怎么这个月就没了？</t>
-  </si>
-  <si>
-    <t>我可以办信用卡吗</t>
-  </si>
-  <si>
-    <t>我开通云闪付收不到验证码</t>
-  </si>
-  <si>
-    <t>我开通了短信银行咋不给我发短信</t>
-  </si>
-  <si>
-    <t>我开通了短信通知，卡内余额变动时收不到短信通知</t>
-  </si>
-  <si>
-    <t>我开通apple pay收不到验证码</t>
-  </si>
-  <si>
-    <t>我开的卡怎么用不了微信</t>
-  </si>
-  <si>
-    <t>我换了手机号码，手机银行怎么用不了呢</t>
-  </si>
-  <si>
-    <t>我购买的理财产品到期后怎么入账</t>
-  </si>
-  <si>
-    <t>我工资卡开通短信通知，但工资上卡不显示短信</t>
-  </si>
-  <si>
-    <t>我刚存的钱怎么没收到短信通知呢</t>
-  </si>
-  <si>
-    <t>我的粤通卡高速交费有没有短信通知呢</t>
-  </si>
-  <si>
-    <t>我的银行卡在国外的ATM上能查询到余额吗</t>
-  </si>
-  <si>
-    <t>我的银行卡微信绑不了</t>
-  </si>
-  <si>
-    <t>我的银行卡密码用不了了</t>
-  </si>
-  <si>
-    <t>我的银行卡密码输错了怎么办</t>
-  </si>
-  <si>
-    <t>我的银行卡密码输错3次了</t>
-  </si>
-  <si>
-    <t>我的信用卡怎么激活</t>
-  </si>
-  <si>
-    <t>我的信用卡怎么还没收到</t>
-  </si>
-  <si>
-    <t>我的信用卡一次可以取多少钱</t>
-  </si>
-  <si>
-    <t>我的信用卡要换手机号码</t>
-  </si>
-  <si>
-    <t>我的信用卡消费了，怎么来还款</t>
-  </si>
-  <si>
-    <t>我的信用卡密码忘记了</t>
-  </si>
-  <si>
-    <t>我的信用卡不见了怎么处理</t>
-  </si>
-  <si>
-    <t>我的外地卡在你们这里取款怎么收费</t>
-  </si>
-  <si>
-    <t>我的天河城信用卡在国外刷卡怎么收费呢</t>
-  </si>
-  <si>
-    <t>我的手机怎么只能转5000元</t>
-  </si>
-  <si>
-    <t>我的手机怎么在支付宝用不了</t>
-  </si>
-  <si>
-    <t>我的手机银行一次只可以转5000元</t>
-  </si>
-  <si>
-    <t>我的手机银行上个月还可以用，怎么现在转不了</t>
-  </si>
-  <si>
-    <t>我的手机银行功能怎么用不了</t>
-  </si>
-  <si>
-    <t>我的身份证读不到了，可以开户吗</t>
-  </si>
-  <si>
-    <t>我的卡到外地存钱要收手续费吗</t>
-  </si>
-  <si>
-    <t>我的短信提醒怎么没有余额显示</t>
-  </si>
-  <si>
-    <t>我的ETC卡收费有没有短信通知</t>
-  </si>
-  <si>
-    <t>我存钱给家里的卡收手续费吗</t>
-  </si>
-  <si>
-    <t>我绑定的银行卡有资金出入时，手机为何收不到短信</t>
-  </si>
-  <si>
-    <t>我办的信用卡什么时候能拿到</t>
-  </si>
-  <si>
-    <t>未成年人开户</t>
-  </si>
-  <si>
-    <t>未按时归还快贷逾期利率是多少？</t>
-  </si>
-  <si>
-    <t>委托扣款是什么意思呢？</t>
-  </si>
-  <si>
-    <t>为什么要保留消费单据？</t>
-  </si>
-  <si>
-    <t>为什么我刷卡了没短信通知我！</t>
-  </si>
-  <si>
-    <t>为什么我申请“快贷”提示不通过？</t>
-  </si>
-  <si>
-    <t>为什么我的银行卡短信通知没有了</t>
-  </si>
-  <si>
-    <t>为什么我的金额进出短信提示没有了</t>
-  </si>
-  <si>
-    <t>为什么我的短信不显示账户余额</t>
-  </si>
-  <si>
-    <t>为什么我办理了手机短信服务，把钱打到卡里了,手机没收到短信提醒呢?</t>
-  </si>
-  <si>
-    <t>为什么停止我的短信服务费呢？</t>
-  </si>
-  <si>
-    <t>微信上怎么用不了</t>
-  </si>
-  <si>
-    <t>网上买东西提示手机号码不对</t>
-  </si>
-  <si>
-    <t>网点名称</t>
-  </si>
-  <si>
-    <t>外籍人士开储蓄卡</t>
-  </si>
-  <si>
-    <t>外国人用什么证件开户</t>
-  </si>
-  <si>
-    <t>外地卡存款要不要收手续费</t>
-  </si>
-  <si>
-    <t>外地的存折在你们这里取款要收多少手续费</t>
-  </si>
-  <si>
-    <t>外地存折取款要不要收费</t>
-  </si>
-  <si>
-    <t>退休人员提取公积金需要什么材料？</t>
-  </si>
-  <si>
-    <t>透支卡一次能取多少</t>
-  </si>
-  <si>
-    <t>透支卡我可以办吗</t>
-  </si>
-  <si>
-    <t>透支卡取现手续费怎么收</t>
-  </si>
-  <si>
-    <t>透支卡可以取现吗</t>
-  </si>
-  <si>
-    <t>通过手机转帐到工行，什么时候可以到帐</t>
-  </si>
-  <si>
-    <t>通过手机银行转帐有限制吗</t>
-  </si>
-  <si>
-    <t>提高信用卡额度</t>
-  </si>
-  <si>
-    <t>随借随还是什么意思</t>
-  </si>
-  <si>
-    <t>速通卡如何扣费</t>
-  </si>
-  <si>
-    <t>速通卡挂失</t>
-  </si>
-  <si>
-    <t>速通电子标签丢失了</t>
-  </si>
-  <si>
-    <t>手机转帐多久可以收到</t>
-  </si>
-  <si>
-    <t>手机转帐，最多可以转多少</t>
-  </si>
-  <si>
-    <t>手机怎么转不了帐</t>
-  </si>
-  <si>
-    <t>手机银行转账进不去了</t>
-  </si>
-  <si>
-    <t>手机银行转账到账时间</t>
-  </si>
-  <si>
-    <t>手机银行转帐金额有限制吗</t>
-  </si>
-  <si>
-    <t>手机银行只可以转5000元</t>
-  </si>
-  <si>
-    <t>手机银行怎么上不去了</t>
-  </si>
-  <si>
-    <t>手机银行能转多少</t>
-  </si>
-  <si>
-    <t>手机银行可以申请信用卡吗？</t>
-  </si>
-  <si>
-    <t>手机银行解绑</t>
-  </si>
-  <si>
-    <t>手机银行汇款到帐时间</t>
-  </si>
-  <si>
-    <t>手机银行登录不上了</t>
-  </si>
-  <si>
-    <t>手机线上交易安全吗？</t>
-  </si>
-  <si>
-    <t>是否可以办理外地车辆ETC业务？</t>
-  </si>
-  <si>
-    <t>是否可以办理建行速通卡注销？怎样办理？</t>
-  </si>
-  <si>
-    <t>是否可以办理建行速通卡签约绑定银行账户变更？怎样办理？</t>
-  </si>
-  <si>
-    <t>使用信用卡应该注意什么？</t>
-  </si>
-  <si>
-    <t>什么是滞纳金</t>
-  </si>
-  <si>
-    <t>什么是账户管理</t>
-  </si>
-  <si>
-    <t>什么是约定还款</t>
-  </si>
-  <si>
-    <t>什么是银行券</t>
-  </si>
-  <si>
-    <t>什么是银行回单</t>
-  </si>
-  <si>
-    <t>什么是银行代销产品</t>
-  </si>
-  <si>
-    <t>什么是现金管理账单</t>
-  </si>
-  <si>
-    <t>什么是投资连结保险</t>
-  </si>
-  <si>
-    <t>什么是日常管家</t>
-  </si>
-  <si>
-    <t>什么是建行账户商品</t>
-  </si>
-  <si>
-    <t>什么是基金定投</t>
-  </si>
-  <si>
-    <t>什么是基金</t>
-  </si>
-  <si>
-    <t>什么是分红保险</t>
-  </si>
-  <si>
-    <t>什么是到期还款日</t>
-  </si>
-  <si>
-    <t>什么是保险产品犹豫期</t>
-  </si>
-  <si>
-    <t>什么情况下可以提取住房公积金</t>
-  </si>
-  <si>
-    <t>什么情况可以提取公积金</t>
-  </si>
-  <si>
-    <t>身份证异常开户</t>
-  </si>
-  <si>
-    <t>身份证消磁了可以开户吗</t>
-  </si>
-  <si>
-    <t>身份证没磁了可以开户吗</t>
-  </si>
-  <si>
-    <t>申请银行贵宾卡</t>
-  </si>
-  <si>
-    <t>申请信用卡多久可以收到</t>
-  </si>
-  <si>
-    <t>申请贵宾卡多久可以取卡</t>
-  </si>
-  <si>
-    <t>申请办理信用卡的基本准入条件是什么</t>
-  </si>
-  <si>
-    <t>如何在自助设备上汇款？</t>
-  </si>
-  <si>
-    <t>如何申请信用卡临时额度</t>
-  </si>
-  <si>
-    <t>如何缴交通罚款</t>
-  </si>
-  <si>
-    <t>如何打印建行速通卡消费明细</t>
-  </si>
-  <si>
-    <t>如何查询建行信用卡余额和透支额度？</t>
-  </si>
-  <si>
-    <t>如何查询车辆通行信息</t>
-  </si>
-  <si>
-    <t>如何保管银行卡</t>
-  </si>
-  <si>
-    <t>如何办理约定还款</t>
-  </si>
-  <si>
-    <t>如何办理结算通卡</t>
-  </si>
-  <si>
-    <t>如何办理建行贵宾卡</t>
-  </si>
-  <si>
-    <t>如何安装建行手机银行</t>
-  </si>
-  <si>
-    <t>如何安全使用信用卡</t>
-  </si>
-  <si>
-    <t>如果选择抵押房产的房贷，是否需要到营业网点办理？</t>
-  </si>
-  <si>
-    <t>请问在线申请贷款时“快贷”和一般贷款有何不同？</t>
-  </si>
-  <si>
-    <t>请问我贷款利息何时开始计算？</t>
-  </si>
-  <si>
-    <t>请问开银行卡需要收什么费用</t>
-  </si>
-  <si>
-    <t>请问办理信用卡有要求吗</t>
-  </si>
-  <si>
-    <t>汽车违章缴费</t>
-  </si>
-  <si>
-    <t>您好，我有一笔交通罚款，怎么交？</t>
-  </si>
-  <si>
-    <t>你们银行办信用卡有什么条件</t>
-  </si>
-  <si>
-    <t>你们网点上班时间</t>
-  </si>
-  <si>
-    <t>你们什么时候下班</t>
-  </si>
-  <si>
-    <t>你们附近还有ATM机吗</t>
-  </si>
-  <si>
-    <t>你们的手机银行额度怎么这么少，只能转5000元</t>
-  </si>
-  <si>
-    <t>你们的理财产品要可不可以提前取</t>
-  </si>
-  <si>
-    <t>你们的卡VIP卡这么办</t>
-  </si>
-  <si>
-    <t>哪些车辆可以办理速通电子标签</t>
-  </si>
-  <si>
-    <t>哪里可以交罚款</t>
-  </si>
-  <si>
-    <t>拿你们的卡回老家取钱，要收手续费吗</t>
-  </si>
-  <si>
-    <t>民生工程</t>
-  </si>
-  <si>
-    <t>买黄金哪家银行好</t>
-  </si>
-  <si>
-    <t>买贵金属哪家银行好</t>
-  </si>
-  <si>
-    <t>买东西刷信用卡要不要收费用</t>
-  </si>
-  <si>
-    <t>龙卡通是否支持选号功能？</t>
-  </si>
-  <si>
-    <t>龙卡通是否有发卡门槛？</t>
-  </si>
-  <si>
-    <t>龙卡通是否可以同账号换卡？</t>
-  </si>
-  <si>
-    <t>龙卡通是否可以零金额开户？</t>
-  </si>
-  <si>
-    <t>龙卡通是否具有关联其他账户的功能？</t>
-  </si>
-  <si>
-    <t>龙卡通卡面有没有改变？</t>
-  </si>
-  <si>
-    <t>龙卡通国外取款手续费</t>
-  </si>
-  <si>
-    <t>龙卡通出国取现手续费</t>
-  </si>
-  <si>
-    <t>龙卡储蓄卡新开户怎么收费</t>
-  </si>
-  <si>
-    <t>临时身份证可以开银行卡吗</t>
-  </si>
-  <si>
-    <t>临时身份证可以开户吗</t>
-  </si>
-  <si>
-    <t>利率的表现形式和换算</t>
-  </si>
-  <si>
-    <t>理财产品要做多长时间</t>
-  </si>
-  <si>
-    <t>理财产品投资期限多长</t>
-  </si>
-  <si>
-    <t>理财产品满期后多久进帐</t>
-  </si>
-  <si>
-    <t>理财产品可以提前支取吗</t>
-  </si>
-  <si>
-    <t>理财产品到期怎么取</t>
-  </si>
-  <si>
-    <t>理财产品到期后怎么返还</t>
-  </si>
-  <si>
-    <t>理财产品到期后什么时间入帐</t>
-  </si>
-  <si>
-    <t>离你们这最近的建行在哪儿</t>
-  </si>
-  <si>
-    <t>快速贷款是真的吗!</t>
-  </si>
-  <si>
-    <t>快贷支持与禁止的贷款用途</t>
-  </si>
-  <si>
-    <t>快贷网上订单退款什么时候到账</t>
-  </si>
-  <si>
-    <t>快贷是否支持转账支付</t>
-  </si>
-  <si>
-    <t>快e贷完成签约流程后，是否仍需进一步签约借贷通？</t>
-  </si>
-  <si>
-    <t>客户咨询建行速通卡在通过车道时无法正常使用后该如何处理？</t>
-  </si>
-  <si>
-    <t>客户信息如何变更</t>
-  </si>
-  <si>
-    <t>客户签约借贷通的储蓄卡丢失，已挂失，如何继续使用贷款？</t>
-  </si>
-  <si>
-    <t>客户快贷贷款额度结清后额度立刻恢复</t>
-  </si>
-  <si>
-    <t>客户建行速通卡欠费后，是否可以直接向签约绑定银行卡内存入款项而不单独缴纳？</t>
-  </si>
-  <si>
-    <t>可以开个账户给小孩吗</t>
-  </si>
-  <si>
-    <t>可以代办信用卡吗</t>
-  </si>
-  <si>
-    <t>开张银行卡要什么费</t>
-  </si>
-  <si>
-    <t>开张卡费用多少</t>
-  </si>
-  <si>
-    <t>开张交学费的卡</t>
-  </si>
-  <si>
-    <t>开一般户条件</t>
-  </si>
-  <si>
-    <t>开信用卡要什么资料</t>
-  </si>
-  <si>
-    <t>开户要收费吗</t>
-  </si>
-  <si>
-    <t>开户要带什么资料</t>
-  </si>
-  <si>
-    <t>开公司帐户要什么要求</t>
-  </si>
-  <si>
-    <t>开公司户要什么资料</t>
-  </si>
-  <si>
-    <t>开个公司一般户，要什么条件</t>
-  </si>
-  <si>
-    <t>开个本子要不要收费</t>
-  </si>
-  <si>
-    <t>开放式基金的分类？</t>
-  </si>
-  <si>
-    <t>开定期存折要不要收费</t>
-  </si>
-  <si>
-    <t>开存折要收费吗</t>
-  </si>
-  <si>
-    <t>卡片被自动柜员机吞了怎么办？</t>
-  </si>
-  <si>
-    <t>境外用卡消费需要注意哪些问题？</t>
-  </si>
-  <si>
-    <t>境外用卡消费需要出示身份证件吗？</t>
-  </si>
-  <si>
-    <t>境外使用信用卡消费手续费怎么收</t>
-  </si>
-  <si>
-    <t>金管家都有哪些功能</t>
-  </si>
-  <si>
-    <t>今天黄金TD（或T加D）价格是多少？</t>
-  </si>
-  <si>
-    <t>今天国内黄金价格是多少？</t>
-  </si>
-  <si>
-    <t>今天国际黄金价格是多少？</t>
-  </si>
-  <si>
-    <t>今天国际白银价格是多少？</t>
-  </si>
-  <si>
-    <t>借记卡如何提供异地紧急现金援助服？</t>
-  </si>
-  <si>
-    <t>借记卡国外取款手续费</t>
-  </si>
-  <si>
-    <t>借记卡存款手续费</t>
-  </si>
-  <si>
-    <t>借记卡出国在ATM机取款手续费怎么收</t>
-  </si>
-  <si>
-    <t>接到建行95533发送的通行费代扣不成功短信后该如何处理？</t>
-  </si>
-  <si>
-    <t>建设银行有多少个网点</t>
-  </si>
-  <si>
-    <t>建设银行信用卡刚收到的新卡怎么用？</t>
-  </si>
-  <si>
-    <t>建行信用卡怎么还美元？</t>
-  </si>
-  <si>
-    <t>建行信用卡有效期是几年？</t>
-  </si>
-  <si>
-    <t>建行信用卡审批一般需要多久？</t>
-  </si>
-  <si>
-    <t>建行信用卡取现了怎么还？</t>
-  </si>
-  <si>
-    <t>建行信用卡签约和未签约是什么意思？</t>
-  </si>
-  <si>
-    <t>建行信用卡开通之后不使用会产生什么费用和影响？</t>
-  </si>
-  <si>
-    <t>建行信用卡卡种有什么区别？</t>
-  </si>
-  <si>
-    <t>建行信用卡积分都能干什么？</t>
-  </si>
-  <si>
-    <t>建行信用卡的免息期是多少天？</t>
-  </si>
-  <si>
-    <t>建行信用卡初始密码是多少？</t>
-  </si>
-  <si>
-    <t>建行速通卡停止使用后，在状态恢复正常后多长时间可以正常使用？</t>
-  </si>
-  <si>
-    <t>建行手机官网是什么地址</t>
-  </si>
-  <si>
-    <t>建行卡在你们这里取款要收费吗</t>
-  </si>
-  <si>
-    <t>建行好吗？</t>
-  </si>
-  <si>
-    <t>建行贵宾卡有什么功能</t>
-  </si>
-  <si>
-    <t>建行贵宾卡有哪些</t>
-  </si>
-  <si>
-    <t>建行贵宾卡有哪几种类</t>
-  </si>
-  <si>
-    <t>建行“刘艳快线”</t>
-  </si>
-  <si>
-    <t>获赠建行速通卡后，电子标签是否要交纳购置费？</t>
-  </si>
-  <si>
-    <t>换了手机，现在手机转账只能转5000</t>
-  </si>
-  <si>
-    <t>换卡卡号会变更吗？</t>
-  </si>
-  <si>
-    <t>国外用信用卡支付手续费</t>
-  </si>
-  <si>
-    <t>国外用信用卡手续费怎么收</t>
-  </si>
-  <si>
-    <t>贵宾卡有哪些服务</t>
-  </si>
-  <si>
-    <t>挂失</t>
-  </si>
-  <si>
-    <t>公司开户有什么要求</t>
-  </si>
-  <si>
-    <t>公积金贷款首付比例是多少</t>
-  </si>
-  <si>
-    <t>更改预留手机号</t>
-  </si>
-  <si>
-    <t>给小孩开户</t>
-  </si>
-  <si>
-    <t>给未成年人开户</t>
-  </si>
-  <si>
-    <t>个人贷款</t>
-  </si>
-  <si>
-    <t>改信用卡密码</t>
-  </si>
-  <si>
-    <t>附近还有别的建行吗</t>
-  </si>
-  <si>
-    <t>分期手续费</t>
-  </si>
-  <si>
-    <t>房屋装修能否提取住房公积金</t>
-  </si>
-  <si>
-    <t>额度有多少</t>
-  </si>
-  <si>
-    <t>多少钱可以存大额存单</t>
-  </si>
-  <si>
-    <t>多少可以做大额存款</t>
-  </si>
-  <si>
-    <t>对公户怎么办理</t>
-  </si>
-  <si>
-    <t>短信通知余额提醒</t>
-  </si>
-  <si>
-    <t>短信服务无法正常使用</t>
-  </si>
-  <si>
-    <t>定期利率查询</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>定期存单目前是否可以质押</t>
-  </si>
-  <si>
-    <t>电子银行包括哪些种类</t>
-  </si>
-  <si>
-    <t>电子渠道转账限额</t>
-  </si>
-  <si>
-    <t>到期还款日是哪一天</t>
-  </si>
-  <si>
-    <t>到期的信用卡还可以用吗</t>
-  </si>
-  <si>
-    <t>单位结算卡怎么挂失</t>
-  </si>
-  <si>
-    <t>单位结算卡在ATM转账时“凭证号码”怎么输入</t>
-  </si>
-  <si>
-    <t>单位结算卡是否可以在其他银行柜员机使用？</t>
-  </si>
-  <si>
-    <t>单位结算卡如何办理</t>
-  </si>
-  <si>
-    <t>单位结算卡密码忘了，怎么办理？</t>
-  </si>
-  <si>
-    <t>贷款期限是多长？</t>
-  </si>
-  <si>
-    <t>贷款额度结清后，贷款账号在网银怎么删除。</t>
-  </si>
-  <si>
-    <t>贷记卡取款手续费</t>
-  </si>
-  <si>
-    <t>贷记卡国外取现手续费</t>
-  </si>
-  <si>
-    <t>带银联标识的龙卡在国外取款手续费要怎么收呢</t>
-  </si>
-  <si>
-    <t>大额存单起点金额</t>
-  </si>
-  <si>
-    <t>大额存单起点多少</t>
-  </si>
-  <si>
-    <t>大额存单利息</t>
-  </si>
-  <si>
-    <t>储蓄账户开户手续费</t>
-  </si>
-  <si>
-    <t>储蓄卡取款收多少手续费</t>
-  </si>
-  <si>
-    <t>储蓄卡国外取现手续费</t>
-  </si>
-  <si>
-    <t>储蓄卡挂失</t>
-  </si>
-  <si>
-    <t>储蓄卡存款要收费吗</t>
-  </si>
-  <si>
-    <t>储蓄卡出国取现手续收多少</t>
-  </si>
-  <si>
-    <t>出国用信用卡取款费用怎么收</t>
-  </si>
-  <si>
-    <t>出国用储蓄卡取现手续费怎么收</t>
-  </si>
-  <si>
-    <t>车上ETC卡要怎么充值</t>
-  </si>
-  <si>
-    <t>车辆所有权人不变，变更使用车辆需携带哪些手续？</t>
-  </si>
-  <si>
-    <t>车e贷支用有几种方式？</t>
-  </si>
-  <si>
-    <t>车e贷支用方法是什么</t>
-  </si>
-  <si>
-    <t>车e贷是否需要办理抵押？</t>
-  </si>
-  <si>
-    <t>车e贷使用范围情况？</t>
-  </si>
-  <si>
-    <t>车e贷利率水平是多少？</t>
-  </si>
-  <si>
-    <t>查询信用卡还款日</t>
-  </si>
-  <si>
-    <t>办粤通卡有什么条件吗</t>
-  </si>
-  <si>
-    <t>办信用卡有什么要求</t>
-  </si>
-  <si>
-    <t>办信用卡要多久</t>
-  </si>
-  <si>
-    <t>办理网银</t>
-  </si>
-  <si>
-    <t>办理建行信用卡需要什么手续？</t>
-  </si>
-  <si>
-    <t>办理建行高速ETC有什么好处</t>
-  </si>
-  <si>
-    <t>办理公积金需带的证件</t>
-  </si>
-  <si>
-    <t>办理车辆所有权人变更，需携带哪些手续？</t>
-  </si>
-  <si>
-    <t>办理VIP卡</t>
-  </si>
-  <si>
-    <t>澳门居民可以开户吗</t>
-  </si>
-  <si>
-    <t>TEC卡缴费短信通知</t>
-  </si>
-  <si>
-    <t>ETC卡没有钱了，怎么存款进去</t>
-  </si>
-  <si>
-    <t>ETC卡费用完了</t>
-  </si>
-  <si>
-    <t>“快诊通”</t>
-  </si>
-  <si>
-    <t>用护照可以开户吗</t>
-  </si>
-  <si>
-    <t>信用卡到期又重新寄了张，密码是多少</t>
-  </si>
-  <si>
-    <t>用手机转帐要多长时间收到</t>
-  </si>
-  <si>
-    <t>用信用卡能取现吗</t>
-  </si>
-  <si>
-    <t>粤通信用卡扣款短信通知</t>
-  </si>
-  <si>
-    <t>我有张外地卡在你们这里存钱收费吗</t>
-  </si>
-  <si>
-    <t>信用卡遗失的办理</t>
-  </si>
-  <si>
-    <t>我在国外可以查询卡内余额要收费吗</t>
-  </si>
-  <si>
-    <t>信用卡以前的地址不用了，怎么更新</t>
-  </si>
-  <si>
-    <t>怎么我的资金进出没有短信提示了</t>
-  </si>
-  <si>
-    <t>怎么我的手机银行只能转5002元呢</t>
-  </si>
-  <si>
-    <t>怎么我的手机银行只能转5004元呢</t>
-  </si>
-  <si>
-    <t>怎么我的手机银行只能转5006元呢</t>
-  </si>
-  <si>
-    <t>银联龙卡在国外ATM机取款，费用收多少</t>
-  </si>
-  <si>
-    <t>你们的理财有多少时间的</t>
-  </si>
-  <si>
-    <t>如何办理贵宾卡</t>
-  </si>
-  <si>
-    <t>新开个存折手续费收多少</t>
-  </si>
-  <si>
-    <t>用信用卡在柜员机取款收手续费吗</t>
-  </si>
-  <si>
-    <t>我的银行卡锁住了</t>
-  </si>
-  <si>
-    <t>重置信用卡密码</t>
   </si>
 </sst>
 </file>
@@ -1444,9 +2011,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1462,11 +2029,11 @@
       <charset val="0"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1479,14 +2046,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1500,7 +2068,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1513,16 +2081,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1530,7 +2090,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1552,11 +2112,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1576,31 +2166,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1615,25 +2182,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1645,13 +2230,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1669,13 +2266,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1687,7 +2302,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1699,13 +2320,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1717,73 +2332,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1796,6 +2345,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1812,8 +2379,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1848,6 +2415,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1865,8 +2441,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1895,17 +2473,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1914,10 +2481,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1926,37 +2493,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1965,94 +2532,94 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2386,12 +2953,12 @@
   <dimension ref="A1:A683"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="44.875" customWidth="1"/>
+    <col min="1" max="1" width="55.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2406,3407 +2973,3407 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="2" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="2" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="2" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="2" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="2" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="2" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="2" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="2" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="2" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="2" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="2" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="2" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="2" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="2" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="2" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="2" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="2" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="2" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="2" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="2" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="2" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="2" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="2" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="2" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="2" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="2" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="2" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="2" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="2" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="2" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="2" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="2" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="2" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="2" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="2" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="2" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="2" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="2" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="2" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="2" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="2" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="2" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="2" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="2" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="2" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="2" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="2" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="2" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="2" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="2" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="2" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="2" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="2" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="2" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="2" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="2" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="2" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="2" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="2" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="2" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="2" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="2" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="2" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="2" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="2" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="2" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="2" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" s="2" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="2" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="2" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="2" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="2" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="2" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="2" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="2" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="2" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="2" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="2" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="2" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="2" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="2" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="2" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="2" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="2" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="2" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="2" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="2" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="2" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="2" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="2" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="2" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="2" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="2" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="2" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="2" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="2" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="2" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="2" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="2" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="2" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="2" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="2" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="2" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="2" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="2" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="2" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="2" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="2" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="2" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="2" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="2" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="2" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="2" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="2" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="2" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="2" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="2" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="2" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="2" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" s="2" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" s="2" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="2" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="2" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="2" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="2" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="2" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="2" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="2" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="2" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" s="2" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="2" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="2" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="2" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" s="2" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" s="2" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="2" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="2" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="2" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" s="2" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" s="2" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="2" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="2" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="2" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" s="2" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" s="2" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" s="2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" s="2" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" s="2" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" s="2" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="2" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" s="2" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" s="2" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="2" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" s="2" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" s="2" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" s="2" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="2" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="2" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" s="2" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" s="2" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" s="2" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" s="2" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" s="2" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" s="2" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" s="2" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" s="2" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" s="2" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" s="2" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="2" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" s="2" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" s="2" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" s="2" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" s="2" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" s="2" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" s="2" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" s="2" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" s="2" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" s="2" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" s="2" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" s="2" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" s="2" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" s="2" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" s="2" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" s="2" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" s="2" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" s="2" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" s="2" t="s">
-        <v>251</v>
+        <v>290</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" s="2" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" s="2" t="s">
-        <v>253</v>
+        <v>292</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" s="2" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" s="2" t="s">
-        <v>254</v>
+        <v>294</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" s="2" t="s">
-        <v>255</v>
+        <v>295</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" s="2" t="s">
-        <v>256</v>
+        <v>296</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" s="2" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" s="2" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" s="2" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" s="2" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" s="2" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" s="2" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" s="2" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" s="2" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" s="2" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" s="2" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" s="2" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" s="2" t="s">
-        <v>267</v>
+        <v>308</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" s="2" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" s="2" t="s">
-        <v>269</v>
+        <v>310</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" s="2" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" s="2" t="s">
-        <v>270</v>
+        <v>312</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" s="2" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" s="2" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" s="2" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" s="2" t="s">
-        <v>273</v>
+        <v>316</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" s="2" t="s">
-        <v>274</v>
+        <v>317</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" s="2" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" s="2" t="s">
-        <v>275</v>
+        <v>319</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" s="2" t="s">
-        <v>276</v>
+        <v>320</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" s="2" t="s">
-        <v>277</v>
+        <v>321</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" s="2" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" s="2" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" s="2" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" s="2" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" s="2" t="s">
-        <v>282</v>
+        <v>326</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" s="2" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" s="2" t="s">
-        <v>283</v>
+        <v>328</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" s="2" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" s="2" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" s="2" t="s">
-        <v>286</v>
+        <v>331</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" s="2" t="s">
-        <v>287</v>
+        <v>332</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" s="2" t="s">
-        <v>288</v>
+        <v>333</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" s="2" t="s">
-        <v>289</v>
+        <v>334</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" s="2" t="s">
-        <v>290</v>
+        <v>335</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" s="2" t="s">
-        <v>291</v>
+        <v>29</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" s="2" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" s="2" t="s">
-        <v>292</v>
+        <v>337</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" s="2" t="s">
-        <v>293</v>
+        <v>338</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" s="2" t="s">
-        <v>294</v>
+        <v>339</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" s="2" t="s">
-        <v>295</v>
+        <v>340</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" s="2" t="s">
-        <v>296</v>
+        <v>341</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" s="2" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" s="2" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" s="2" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" s="2" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" s="2" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" s="2" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" s="2" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" s="2" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" s="2" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" s="2" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" s="2" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" s="2" t="s">
-        <v>308</v>
+        <v>352</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" s="2" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" s="2" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" s="2" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" s="2" t="s">
-        <v>311</v>
+        <v>356</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" s="2" t="s">
-        <v>312</v>
+        <v>357</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" s="2" t="s">
-        <v>313</v>
+        <v>358</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" s="2" t="s">
-        <v>314</v>
+        <v>359</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" s="2" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" s="2" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" s="2" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" s="2" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" s="2" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" s="2" t="s">
-        <v>318</v>
+        <v>363</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" s="2" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" s="2" t="s">
-        <v>319</v>
+        <v>365</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" s="2" t="s">
-        <v>320</v>
+        <v>366</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" s="2" t="s">
-        <v>320</v>
+        <v>367</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" s="2" t="s">
-        <v>321</v>
+        <v>368</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" s="2" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" s="2" t="s">
-        <v>323</v>
+        <v>370</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" s="2" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" s="2" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" s="2" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" s="2" t="s">
-        <v>327</v>
+        <v>374</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" s="2" t="s">
-        <v>328</v>
+        <v>375</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" s="2" t="s">
-        <v>328</v>
+        <v>376</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" s="2" t="s">
-        <v>329</v>
+        <v>377</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" s="2" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" s="2" t="s">
-        <v>331</v>
+        <v>379</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" s="2" t="s">
-        <v>332</v>
+        <v>380</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" s="2" t="s">
-        <v>333</v>
+        <v>381</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" s="2" t="s">
-        <v>334</v>
+        <v>382</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" s="2" t="s">
-        <v>335</v>
+        <v>383</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" s="2" t="s">
-        <v>336</v>
+        <v>384</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" s="2" t="s">
-        <v>337</v>
+        <v>385</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" s="2" t="s">
-        <v>338</v>
+        <v>386</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" s="2" t="s">
-        <v>339</v>
+        <v>387</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" s="2" t="s">
-        <v>340</v>
+        <v>388</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" s="2" t="s">
-        <v>341</v>
+        <v>389</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" s="2" t="s">
-        <v>342</v>
+        <v>390</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" s="2" t="s">
-        <v>343</v>
+        <v>391</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" s="2" t="s">
-        <v>344</v>
+        <v>392</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" s="2" t="s">
-        <v>345</v>
+        <v>393</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" s="2" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" s="2" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" s="2" t="s">
-        <v>347</v>
+        <v>396</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" s="2" t="s">
-        <v>348</v>
+        <v>397</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" s="2" t="s">
-        <v>349</v>
+        <v>398</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" s="2" t="s">
-        <v>349</v>
+        <v>399</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" s="2" t="s">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" s="2" t="s">
-        <v>351</v>
+        <v>401</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" s="2" t="s">
-        <v>351</v>
+        <v>402</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" s="2" t="s">
-        <v>352</v>
+        <v>403</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" s="2" t="s">
-        <v>353</v>
+        <v>404</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" s="2" t="s">
-        <v>354</v>
+        <v>405</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" s="2" t="s">
-        <v>354</v>
+        <v>406</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" s="2" t="s">
-        <v>355</v>
+        <v>407</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" s="2" t="s">
-        <v>356</v>
+        <v>408</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" s="2" t="s">
-        <v>357</v>
+        <v>409</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" s="2" t="s">
-        <v>358</v>
+        <v>410</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" s="2" t="s">
-        <v>359</v>
+        <v>411</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" s="2" t="s">
-        <v>360</v>
+        <v>412</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" s="2" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" s="2" t="s">
-        <v>362</v>
+        <v>414</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" s="2" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" s="2" t="s">
-        <v>364</v>
+        <v>416</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" s="2" t="s">
-        <v>365</v>
+        <v>417</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" s="2" t="s">
-        <v>365</v>
+        <v>418</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" s="2" t="s">
-        <v>366</v>
+        <v>419</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" s="2" t="s">
-        <v>367</v>
+        <v>420</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" s="2" t="s">
-        <v>367</v>
+        <v>421</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" s="2" t="s">
-        <v>368</v>
+        <v>422</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" s="2" t="s">
-        <v>369</v>
+        <v>423</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" s="2" t="s">
-        <v>370</v>
+        <v>424</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" s="2" t="s">
-        <v>370</v>
+        <v>425</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" s="2" t="s">
-        <v>371</v>
+        <v>426</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" s="2" t="s">
-        <v>372</v>
+        <v>427</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" s="2" t="s">
-        <v>372</v>
+        <v>428</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" s="2" t="s">
-        <v>373</v>
+        <v>429</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" s="2" t="s">
-        <v>374</v>
+        <v>430</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" s="2" t="s">
-        <v>375</v>
+        <v>431</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" s="2" t="s">
-        <v>376</v>
+        <v>432</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" s="2" t="s">
-        <v>377</v>
+        <v>433</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" s="2" t="s">
-        <v>378</v>
+        <v>434</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" s="2" t="s">
-        <v>379</v>
+        <v>434</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" s="2" t="s">
-        <v>380</v>
+        <v>435</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" s="2" t="s">
-        <v>380</v>
+        <v>436</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" s="2" t="s">
-        <v>381</v>
+        <v>437</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" s="2" t="s">
-        <v>382</v>
+        <v>438</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" s="2" t="s">
-        <v>382</v>
+        <v>28</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" s="2" t="s">
-        <v>383</v>
+        <v>439</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" s="2" t="s">
-        <v>383</v>
+        <v>440</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" s="2" t="s">
-        <v>384</v>
+        <v>441</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" s="2" t="s">
-        <v>385</v>
+        <v>442</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" s="2" t="s">
-        <v>386</v>
+        <v>443</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" s="2" t="s">
-        <v>387</v>
+        <v>444</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" s="2" t="s">
-        <v>388</v>
+        <v>445</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" s="2" t="s">
-        <v>389</v>
+        <v>446</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" s="2" t="s">
-        <v>389</v>
+        <v>447</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" s="2" t="s">
-        <v>390</v>
+        <v>448</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" s="2" t="s">
-        <v>391</v>
+        <v>449</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" s="2" t="s">
-        <v>392</v>
+        <v>450</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" s="2" t="s">
-        <v>393</v>
+        <v>451</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" s="2" t="s">
-        <v>393</v>
+        <v>452</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" s="2" t="s">
-        <v>394</v>
+        <v>453</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" s="2" t="s">
-        <v>395</v>
+        <v>454</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" s="2" t="s">
-        <v>396</v>
+        <v>455</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" s="2" t="s">
-        <v>397</v>
+        <v>456</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" s="2" t="s">
-        <v>398</v>
+        <v>457</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" s="2" t="s">
-        <v>399</v>
+        <v>458</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" s="2" t="s">
-        <v>400</v>
+        <v>459</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" s="2" t="s">
-        <v>400</v>
+        <v>460</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" s="2" t="s">
-        <v>401</v>
+        <v>461</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" s="2" t="s">
-        <v>402</v>
+        <v>462</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" s="2" t="s">
-        <v>403</v>
+        <v>463</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" s="2" t="s">
-        <v>403</v>
+        <v>464</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" s="2" t="s">
-        <v>404</v>
+        <v>465</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" s="2" t="s">
-        <v>404</v>
+        <v>466</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" s="2" t="s">
-        <v>405</v>
+        <v>467</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" s="2" t="s">
-        <v>406</v>
+        <v>468</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" s="2" t="s">
-        <v>407</v>
+        <v>469</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" s="2" t="s">
-        <v>408</v>
+        <v>470</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" s="2" t="s">
-        <v>409</v>
+        <v>471</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" s="2" t="s">
-        <v>410</v>
+        <v>472</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" s="2" t="s">
-        <v>411</v>
+        <v>473</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" s="2" t="s">
-        <v>411</v>
+        <v>474</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" s="2" t="s">
-        <v>412</v>
+        <v>475</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" s="2" t="s">
-        <v>413</v>
+        <v>476</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" s="2" t="s">
-        <v>413</v>
+        <v>477</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" s="2" t="s">
-        <v>414</v>
+        <v>478</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" s="2" t="s">
-        <v>415</v>
+        <v>479</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" s="2" t="s">
-        <v>415</v>
+        <v>480</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" s="2" t="s">
-        <v>416</v>
+        <v>481</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" s="2" t="s">
-        <v>417</v>
+        <v>482</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" s="2" t="s">
-        <v>418</v>
+        <v>483</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" s="2" t="s">
-        <v>419</v>
+        <v>484</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" s="2" t="s">
-        <v>420</v>
+        <v>485</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" s="2" t="s">
-        <v>421</v>
+        <v>486</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" s="2" t="s">
-        <v>422</v>
+        <v>460</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" s="2" t="s">
-        <v>423</v>
+        <v>487</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505" s="2" t="s">
-        <v>423</v>
+        <v>488</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" s="2" t="s">
-        <v>424</v>
+        <v>489</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" s="2" t="s">
-        <v>425</v>
+        <v>490</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" s="2" t="s">
-        <v>426</v>
+        <v>491</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" s="2" t="s">
-        <v>427</v>
+        <v>492</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" s="2" t="s">
-        <v>428</v>
+        <v>493</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" s="2" t="s">
-        <v>429</v>
+        <v>494</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" s="2" t="s">
-        <v>430</v>
+        <v>495</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" s="2" t="s">
-        <v>431</v>
+        <v>496</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" s="2" t="s">
-        <v>432</v>
+        <v>497</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515" s="2" t="s">
-        <v>433</v>
+        <v>498</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" s="2" t="s">
-        <v>434</v>
+        <v>499</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517" s="2" t="s">
-        <v>435</v>
+        <v>499</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" s="2" t="s">
-        <v>436</v>
+        <v>500</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519" s="2" t="s">
-        <v>437</v>
+        <v>501</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" s="2" t="s">
-        <v>438</v>
+        <v>502</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521" s="2" t="s">
-        <v>438</v>
+        <v>503</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" s="2" t="s">
-        <v>439</v>
+        <v>504</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" s="2" t="s">
-        <v>440</v>
+        <v>505</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" s="2" t="s">
-        <v>441</v>
+        <v>506</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525" s="2" t="s">
-        <v>442</v>
+        <v>507</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" s="2" t="s">
-        <v>443</v>
+        <v>508</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" s="2" t="s">
-        <v>443</v>
+        <v>509</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" s="2" t="s">
-        <v>444</v>
+        <v>510</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" s="2" t="s">
-        <v>445</v>
+        <v>511</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" s="2" t="s">
-        <v>446</v>
+        <v>512</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" s="2" t="s">
-        <v>447</v>
+        <v>513</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" s="2" t="s">
-        <v>448</v>
+        <v>514</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" s="2" t="s">
-        <v>449</v>
+        <v>515</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" s="2" t="s">
-        <v>450</v>
+        <v>516</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" s="2" t="s">
-        <v>451</v>
+        <v>517</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" s="2" t="s">
-        <v>452</v>
+        <v>518</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537" s="2" t="s">
-        <v>453</v>
+        <v>519</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" s="2" t="s">
-        <v>20</v>
+        <v>520</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" s="2" t="s">
-        <v>20</v>
+        <v>521</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540" s="2" t="s">
-        <v>20</v>
+        <v>522</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541" s="2" t="s">
-        <v>20</v>
+        <v>523</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" s="2" t="s">
-        <v>20</v>
+        <v>521</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" s="2" t="s">
-        <v>20</v>
+        <v>522</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" s="2" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" s="2" t="s">
-        <v>75</v>
+        <v>524</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" s="2" t="s">
-        <v>75</v>
+        <v>525</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" s="2" t="s">
-        <v>336</v>
+        <v>526</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" s="2" t="s">
-        <v>336</v>
+        <v>527</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" s="2" t="s">
-        <v>336</v>
+        <v>528</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" s="2" t="s">
-        <v>336</v>
+        <v>529</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" s="2" t="s">
-        <v>181</v>
+        <v>530</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" s="2" t="s">
-        <v>181</v>
+        <v>531</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" s="2" t="s">
-        <v>181</v>
+        <v>532</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" s="2" t="s">
-        <v>181</v>
+        <v>533</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555" s="2" t="s">
-        <v>181</v>
+        <v>534</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" s="2" t="s">
-        <v>181</v>
+        <v>535</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" s="2" t="s">
-        <v>181</v>
+        <v>536</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" s="2" t="s">
-        <v>7</v>
+        <v>537</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" s="2" t="s">
-        <v>7</v>
+        <v>538</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" s="2" t="s">
-        <v>7</v>
+        <v>539</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" s="2" t="s">
-        <v>45</v>
+        <v>540</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" s="2" t="s">
-        <v>45</v>
+        <v>541</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" s="2" t="s">
-        <v>454</v>
+        <v>542</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" s="2" t="s">
-        <v>454</v>
+        <v>543</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565" s="2" t="s">
-        <v>454</v>
+        <v>544</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" s="2" t="s">
-        <v>88</v>
+        <v>545</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567" s="2" t="s">
-        <v>88</v>
+        <v>546</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" s="2" t="s">
-        <v>88</v>
+        <v>547</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569" s="2" t="s">
-        <v>88</v>
+        <v>548</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" s="2" t="s">
-        <v>29</v>
+        <v>549</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571" s="2" t="s">
-        <v>29</v>
+        <v>550</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" s="2" t="s">
-        <v>29</v>
+        <v>551</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573" s="2" t="s">
-        <v>189</v>
+        <v>552</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574" s="2" t="s">
-        <v>455</v>
+        <v>553</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575" s="2" t="s">
-        <v>456</v>
+        <v>554</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" s="2" t="s">
-        <v>456</v>
+        <v>555</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" s="2" t="s">
-        <v>456</v>
+        <v>556</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" s="2" t="s">
-        <v>456</v>
+        <v>557</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579" s="2" t="s">
-        <v>457</v>
+        <v>558</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580" s="2" t="s">
-        <v>457</v>
+        <v>559</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581" s="2" t="s">
-        <v>457</v>
+        <v>560</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582" s="2" t="s">
-        <v>457</v>
+        <v>561</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583" s="2" t="s">
-        <v>457</v>
+        <v>562</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584" s="2" t="s">
-        <v>74</v>
+        <v>563</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585" s="2" t="s">
-        <v>165</v>
+        <v>564</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" s="2" t="s">
-        <v>165</v>
+        <v>565</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587" s="2" t="s">
-        <v>458</v>
+        <v>566</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588" s="2" t="s">
-        <v>458</v>
+        <v>567</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" s="2" t="s">
-        <v>458</v>
+        <v>568</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" s="2" t="s">
-        <v>459</v>
+        <v>569</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591" s="2" t="s">
-        <v>459</v>
+        <v>570</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592" s="2" t="s">
-        <v>459</v>
+        <v>571</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593" s="2" t="s">
-        <v>459</v>
+        <v>572</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" s="2" t="s">
-        <v>460</v>
+        <v>573</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" s="2" t="s">
-        <v>36</v>
+        <v>574</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" s="2" t="s">
-        <v>36</v>
+        <v>575</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597" s="2" t="s">
-        <v>36</v>
+        <v>576</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" s="2" t="s">
-        <v>36</v>
+        <v>577</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599" s="2" t="s">
-        <v>36</v>
+        <v>578</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" s="2" t="s">
-        <v>36</v>
+        <v>579</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601" s="2" t="s">
-        <v>290</v>
+        <v>580</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" s="2" t="s">
-        <v>461</v>
+        <v>581</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" s="2" t="s">
-        <v>461</v>
+        <v>582</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" s="2" t="s">
-        <v>283</v>
+        <v>583</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605" s="2" t="s">
-        <v>283</v>
+        <v>584</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606" s="2" t="s">
-        <v>283</v>
+        <v>585</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607" s="2" t="s">
-        <v>283</v>
+        <v>586</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" s="2" t="s">
-        <v>283</v>
+        <v>587</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609" s="2" t="s">
-        <v>283</v>
+        <v>588</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610" s="2" t="s">
-        <v>462</v>
+        <v>589</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611" s="2" t="s">
-        <v>462</v>
+        <v>590</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" s="2" t="s">
-        <v>462</v>
+        <v>591</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613" s="2" t="s">
-        <v>138</v>
+        <v>592</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" s="2" t="s">
-        <v>138</v>
+        <v>593</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615" s="2" t="s">
-        <v>138</v>
+        <v>594</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" s="2" t="s">
-        <v>463</v>
+        <v>595</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617" s="2" t="s">
-        <v>463</v>
+        <v>596</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" s="2" t="s">
-        <v>463</v>
+        <v>597</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" s="2" t="s">
-        <v>463</v>
+        <v>598</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" s="2" t="s">
-        <v>463</v>
+        <v>599</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" s="2" t="s">
-        <v>463</v>
+        <v>600</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622" s="2" t="s">
-        <v>463</v>
+        <v>601</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" s="2" t="s">
-        <v>463</v>
+        <v>602</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" s="2" t="s">
-        <v>463</v>
+        <v>603</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" s="2" t="s">
-        <v>463</v>
+        <v>604</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" s="2" t="s">
-        <v>463</v>
+        <v>605</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" s="2" t="s">
-        <v>463</v>
+        <v>606</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" s="2" t="s">
-        <v>463</v>
+        <v>607</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" s="2" t="s">
-        <v>463</v>
+        <v>608</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630" s="2" t="s">
-        <v>24</v>
+        <v>609</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" s="2" t="s">
-        <v>464</v>
+        <v>610</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" s="2" t="s">
-        <v>465</v>
+        <v>611</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" s="2" t="s">
-        <v>466</v>
+        <v>612</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634" s="2" t="s">
-        <v>188</v>
+        <v>613</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" s="2" t="s">
-        <v>58</v>
+        <v>614</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636" s="2" t="s">
-        <v>64</v>
+        <v>615</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" s="2" t="s">
-        <v>64</v>
+        <v>616</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638" s="2" t="s">
-        <v>64</v>
+        <v>617</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" s="2" t="s">
-        <v>64</v>
+        <v>618</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640" s="2" t="s">
-        <v>130</v>
+        <v>619</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" s="2" t="s">
-        <v>130</v>
+        <v>620</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642" s="2" t="s">
-        <v>130</v>
+        <v>621</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" s="2" t="s">
-        <v>130</v>
+        <v>622</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644" s="2" t="s">
-        <v>130</v>
+        <v>623</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" s="2" t="s">
-        <v>130</v>
+        <v>624</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646" s="2" t="s">
-        <v>23</v>
+        <v>625</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" s="2" t="s">
-        <v>23</v>
+        <v>626</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648" s="2" t="s">
-        <v>40</v>
+        <v>627</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" s="2" t="s">
-        <v>40</v>
+        <v>628</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650" s="2" t="s">
-        <v>40</v>
+        <v>629</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" s="2" t="s">
-        <v>5</v>
+        <v>630</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" s="2" t="s">
-        <v>467</v>
+        <v>631</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" s="2" t="s">
-        <v>467</v>
+        <v>632</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654" s="2" t="s">
-        <v>467</v>
+        <v>633</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" s="2" t="s">
-        <v>467</v>
+        <v>634</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656" s="2" t="s">
-        <v>467</v>
+        <v>635</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" s="2" t="s">
-        <v>467</v>
+        <v>636</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658" s="2" t="s">
-        <v>467</v>
+        <v>637</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" s="2" t="s">
-        <v>468</v>
+        <v>638</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660" s="2" t="s">
-        <v>469</v>
+        <v>639</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" s="2" t="s">
-        <v>117</v>
+        <v>640</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662" s="2" t="s">
-        <v>117</v>
+        <v>641</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" s="2" t="s">
-        <v>470</v>
+        <v>642</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" s="2" t="s">
-        <v>470</v>
+        <v>643</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" s="2" t="s">
-        <v>471</v>
+        <v>644</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666" s="2" t="s">
-        <v>471</v>
+        <v>645</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" s="2" t="s">
-        <v>471</v>
+        <v>646</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668" s="2" t="s">
-        <v>471</v>
+        <v>647</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669" s="2" t="s">
-        <v>471</v>
+        <v>648</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670" s="2" t="s">
-        <v>471</v>
+        <v>649</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671" s="2" t="s">
-        <v>54</v>
+        <v>650</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672" s="2" t="s">
-        <v>54</v>
+        <v>651</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673" s="2" t="s">
-        <v>54</v>
+        <v>652</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674" s="2" t="s">
-        <v>54</v>
+        <v>653</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675" s="2" t="s">
-        <v>156</v>
+        <v>654</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676" s="2" t="s">
-        <v>472</v>
+        <v>655</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" s="2" t="s">
-        <v>472</v>
+        <v>656</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678" s="2" t="s">
-        <v>473</v>
+        <v>657</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679" s="2" t="s">
-        <v>473</v>
+        <v>658</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680" s="2" t="s">
-        <v>107</v>
+        <v>659</v>
       </c>
     </row>
     <row r="681" spans="1:1">
       <c r="A681" s="2" t="s">
-        <v>107</v>
+        <v>660</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682" s="2" t="s">
-        <v>107</v>
+        <v>661</v>
       </c>
     </row>
     <row r="683" spans="1:1">
       <c r="A683" s="2" t="s">
-        <v>107</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>
